--- a/predictions.xlsx
+++ b/predictions.xlsx
@@ -455,371 +455,371 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>314.3464564981996</v>
+        <v>316.9613784194689</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>202</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ronald Acuña Jr.</t>
+          <t>Jacob deGrom</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>304.6534882734747</v>
+        <v>312.6228888418123</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>124</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Esteury Ruiz</t>
+          <t>Ronald Acuña Jr.</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>295.5473511016972</v>
+        <v>308.2266264139731</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>37</v>
+        <v>203</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cedric Mullins</t>
+          <t>Kevin Gausman</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>290.1739657329491</v>
+        <v>298.9679726217672</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>201</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fernando Tatis Jr.</t>
+          <t>Spencer Strider</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>290.0958949050082</v>
+        <v>298.4990454794165</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>128</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jorge Mateo</t>
+          <t>Fernando Tatis Jr.</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>287.767777832236</v>
+        <v>296.8601549372832</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>13</v>
+        <v>207</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Julio Rodríguez</t>
+          <t>Gerrit Cole</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>287.5349406065613</v>
+        <v>296.0024619513055</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>64</v>
+        <v>212</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bobby Witt Jr.</t>
+          <t>Justin Verlander</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>287.2379057464688</v>
+        <v>294.7871462246481</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>17</v>
+        <v>200</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Kyle Tucker</t>
+          <t>Framber Valdez</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>287.0433626075241</v>
+        <v>293.1756186241029</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Randy Arozarena</t>
+          <t>Aaron Nola</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>283.8270184430023</v>
+        <v>292.1031070472019</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Trea Turner</t>
+          <t>Shane McClanahan</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>283.2736517658838</v>
+        <v>291.9311707228773</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>6</v>
+        <v>208</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>José Ramírez</t>
+          <t>Clayton Kershaw</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>283.0362647115763</v>
+        <v>291.0910573108833</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>120</v>
+        <v>217</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Starling Marte</t>
+          <t>Max Scherzer</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>282.5732744916474</v>
+        <v>289.8653409958952</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Michael Harris II</t>
+          <t>Kyle Tucker</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>279.9252809146315</v>
+        <v>289.4135903398737</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>48</v>
+        <v>204</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Nico Hoerner</t>
+          <t>Zack Wheeler</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>279.1869940443878</v>
+        <v>288.0896892252389</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>55</v>
+        <v>209</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Corbin Carroll</t>
+          <t>Chris Sale</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>279.0547267981023</v>
+        <v>286.4427974050832</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>84</v>
+        <v>213</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Anthony Volpe</t>
+          <t>Corbin Burnes</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>277.7650596131957</v>
+        <v>286.128578607847</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Wander Franco</t>
+          <t>Sandy Alcantara</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>277.5433972785118</v>
+        <v>285.275276785912</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>10</v>
+        <v>214</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Marcus Semien</t>
+          <t>Luis Castillo</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>277.2357517373877</v>
+        <v>285.1880145324355</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Adolis García</t>
+          <t>José Ramírez</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>277.2075504424187</v>
+        <v>284.9743345829564</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Andrés Giménez</t>
+          <t>Aaron Judge</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>276.2612090691495</v>
+        <v>284.9148191841593</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>62</v>
+        <v>219</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Tommy Edman</t>
+          <t>Shane Bieber</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>276.0434524147323</v>
+        <v>284.8534778389884</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>83</v>
+        <v>216</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Christian Yelich</t>
+          <t>Tyler Glasnow</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>275.3462686470494</v>
+        <v>283.0547173778518</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Harrison Bader</t>
+          <t>Nathan Eovaldi</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>275.2544630445374</v>
+        <v>282.7068274799489</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Freddie Freeman</t>
+          <t>Julio Rodríguez</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>274.4401055485226</v>
+        <v>282.5330436984514</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Myles Straw</t>
+          <t>Freddie Freeman</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>274.4216835795975</v>
+        <v>280.8620943545641</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>26</v>
+        <v>215</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Bo Bichette</t>
+          <t>Logan Webb</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>274.1129880162529</v>
+        <v>280.7831966741455</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>76</v>
+        <v>222</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Thairo Estrada</t>
+          <t>Pablo López</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>274.1032534113988</v>
+        <v>280.5826926495946</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Aaron Judge</t>
+          <t>Zac Gallen</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>273.9976918127955</v>
+        <v>280.5666031941447</v>
       </c>
     </row>
     <row r="31">
@@ -832,3816 +832,3816 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>273.2847967239387</v>
+        <v>280.5656756618204</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Jazz Chisholm Jr.</t>
+          <t>Yu Darvish</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>272.9684856562207</v>
+        <v>280.1509891926153</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>91</v>
+        <v>231</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Jose Siri</t>
+          <t>Logan Gilbert</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>272.9313496600296</v>
+        <v>279.5613085336598</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Bryce Harper</t>
+          <t>Cedric Mullins</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>272.8491311097639</v>
+        <v>279.3986703904702</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>7</v>
+        <v>230</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Mookie Betts</t>
+          <t>George Kirby</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>272.3268760320404</v>
+        <v>278.6737018523174</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>14</v>
+        <v>223</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Francisco Lindor</t>
+          <t>Joe Ryan</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>272.1428409307587</v>
+        <v>278.5982677893901</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Tim Anderson</t>
+          <t>Randy Arozarena</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>272.1109186842076</v>
+        <v>278.5750521821585</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>38</v>
+        <v>352</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>George Springer</t>
+          <t>Liam Hendriks</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>270.8861186482129</v>
+        <v>277.1873637564269</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Steven Kwan</t>
+          <t>Yordan Alvarez</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>270.6859303557413</v>
+        <v>276.8838025349921</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>194</v>
+        <v>23</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Jon Berti</t>
+          <t>Trea Turner</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>270.6337765064641</v>
+        <v>276.5810358852054</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Ke'Bryan Hayes</t>
+          <t>Bobby Witt Jr.</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>270.5594859245535</v>
+        <v>276.2621223073912</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>22</v>
+        <v>224</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Paul Goldschmidt</t>
+          <t>Lance Lynn</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>270.4763426321308</v>
+        <v>275.9301878701003</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Dansby Swanson</t>
+          <t>Esteury Ruiz</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>270.3286382286057</v>
+        <v>275.2141341932329</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>134</v>
+        <v>7</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Leody Taveras</t>
+          <t>Mookie Betts</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>270.3114994411118</v>
+        <v>274.8628037618884</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>88</v>
+        <v>218</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Jeremy Peña</t>
+          <t>Hunter Greene</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>269.4904236407085</v>
+        <v>274.8147771336492</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Luis Robert Jr.</t>
+          <t>Bryce Harper</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>269.4742933034521</v>
+        <v>273.6953136388074</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>J.T. Realmuto</t>
+          <t>Marcus Semien</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>269.2260656929512</v>
+        <v>273.4485939280423</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Daulton Varsho</t>
+          <t>Adolis García</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>269.1565426651193</v>
+        <v>273.0329407658288</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Amed Rosario</t>
+          <t>Rafael Devers</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>269.1164478405586</v>
+        <v>272.9357320344031</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>105</v>
+        <v>245</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Cody Bellinger</t>
+          <t>Carlos Rodón</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>268.9310463567955</v>
+        <v>272.8612737395226</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Byron Buxton</t>
+          <t>Bo Bichette</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>268.8990876764065</v>
+        <v>272.7674494826309</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Ozzie Albies</t>
+          <t>Vladimir Guerrero Jr.</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>268.2166162648703</v>
+        <v>272.7282852785127</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Jarred Kelenic</t>
+          <t>Paul Goldschmidt</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>268.0388423475201</v>
+        <v>272.6125468050703</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Framber Valdez</t>
+          <t>Joe Musgrove</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>267.7140973535861</v>
+        <v>272.4353715694216</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>207</v>
+        <v>3</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Gerrit Cole</t>
+          <t>Mike Trout</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>267.4192120217679</v>
+        <v>272.2388503307942</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>29</v>
+        <v>242</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Vladimir Guerrero Jr.</t>
+          <t>Luis Severino</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>267.3426421503536</v>
+        <v>272.1345465318601</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>30</v>
+        <v>221</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Jose Altuve</t>
+          <t>Alex Cobb</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>267.331613668781</v>
+        <v>272.1306406283578</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>65</v>
+        <v>246</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Gleyber Torres</t>
+          <t>Zach Eflin</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>266.8983966959387</v>
+        <v>271.8702142700757</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>202</v>
+        <v>32</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Jacob deGrom</t>
+          <t>Pete Alonso</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>266.6932311228438</v>
+        <v>271.6327946818088</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Kevin Gausman</t>
+          <t>Charlie Morton</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>266.6080034665274</v>
+        <v>271.4201630601842</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>201</v>
+        <v>336</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Spencer Strider</t>
+          <t>Josh Hader</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>266.4309649463353</v>
+        <v>270.5524852514443</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Rafael Devers</t>
+          <t>Wander Franco</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>266.3212431682334</v>
+        <v>270.4959183540376</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>114</v>
+        <v>355</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Jonathan India</t>
+          <t>Emmanuel Clase</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>266.2690128583937</v>
+        <v>270.1835761765607</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>129</v>
+        <v>49</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Josh Rojas</t>
+          <t>Michael Harris II</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>266.0136015530213</v>
+        <v>270.0604383536244</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>52</v>
+        <v>232</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Bryan Reynolds</t>
+          <t>Jordan Montgomery</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>265.8422865447102</v>
+        <v>269.9158535718159</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>32</v>
+        <v>244</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Pete Alonso</t>
+          <t>Lucas Giolito</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>265.6783915120562</v>
+        <v>269.8367946537858</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>206</v>
+        <v>251</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Aaron Nola</t>
+          <t>Brandon Woodruff</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>265.6690507805558</v>
+        <v>269.6575331289519</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Matt McLain</t>
+          <t>Corbin Carroll</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>265.5149642414612</v>
+        <v>269.1552990266692</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>144</v>
+        <v>333</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Teoscar Hernández</t>
+          <t>Félix Bautista</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>265.338122544216</v>
+        <v>268.7351897593651</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>125</v>
+        <v>363</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Taylor Walls</t>
+          <t>Ryan Pressly</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>265.128697617798</v>
+        <v>268.4371655424706</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>5</v>
+        <v>385</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Yordan Alvarez</t>
+          <t>Raisel Iglesias</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>265.0440187993393</v>
+        <v>268.3360660293516</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>212</v>
+        <v>34</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Justin Verlander</t>
+          <t>Matt Olson</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>264.9565729922817</v>
+        <v>268.2098584802106</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>19</v>
+        <v>229</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Xander Bogaerts</t>
+          <t>Eduardo Rodriguez</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>264.8982039031817</v>
+        <v>268.1481540749519</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>85</v>
+        <v>339</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Javier Báez</t>
+          <t>Ryan Helsley</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>264.7808900193374</v>
+        <v>267.8677717605151</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>3</v>
+        <v>305</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Mike Trout</t>
+          <t>Jhoan Duran</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>264.6980242365551</v>
+        <v>267.6794935638804</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>41</v>
+        <v>350</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Manny Machado</t>
+          <t>David Bednar</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>264.5162323549451</v>
+        <v>267.6346412961041</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Nolan Arenado</t>
+          <t>Dylan Cease</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>264.4808984375586</v>
+        <v>267.2919035522889</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Willy Adames</t>
+          <t>Starling Marte</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>264.3296704979533</v>
+        <v>266.8589109665865</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Ian Happ</t>
+          <t>Christian Yelich</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>264.3050514459206</v>
+        <v>266.6317002369607</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Sandy Alcantara</t>
+          <t>Jorge Mateo</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>264.0473700210057</v>
+        <v>266.3951957894369</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>157</v>
+        <v>47</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Manuel Margot</t>
+          <t>Byron Buxton</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>264.0204443380012</v>
+        <v>266.0403096970593</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Kyle Schwarber</t>
+          <t>Francisco Lindor</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>263.7054807084883</v>
+        <v>265.9515782965929</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TJ Friedl</t>
+          <t>George Springer</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>263.6407245565982</v>
+        <v>265.8905424213979</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>205</v>
+        <v>256</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Shane McClanahan</t>
+          <t>Nestor Cortes</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>263.3950144701588</v>
+        <v>265.4579049414941</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Andrew Benintendi</t>
+          <t>Austin Riley</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>263.3519358200001</v>
+        <v>265.3783816855497</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>34</v>
+        <v>236</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Matt Olson</t>
+          <t>Blake Snell</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>263.2959659177533</v>
+        <v>265.3624541836509</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>196</v>
+        <v>48</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Ezequiel Tovar</t>
+          <t>Nico Hoerner</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>263.0258392563167</v>
+        <v>265.2157445807533</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Shane Bieber</t>
+          <t>Kodai Senga</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>262.8792653839686</v>
+        <v>265.1974252697134</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>133</v>
+        <v>226</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Ramón Laureano</t>
+          <t>Sonny Gray</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>262.7810648016589</v>
+        <v>265.179245694936</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>67</v>
+        <v>247</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Seiya Suzuki</t>
+          <t>Cristian Javier</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>262.7709296363237</v>
+        <v>265.0622914534364</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>66</v>
+        <v>248</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Gunnar Henderson</t>
+          <t>Jesús Luzardo</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>262.7180146179236</v>
+        <v>264.4364187206028</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>190</v>
+        <v>33</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Brandon Marsh</t>
+          <t>Luis Robert Jr.</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>262.558436020768</v>
+        <v>264.2572824142427</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Miguel Vargas</t>
+          <t>José Berríos</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>262.5281134258323</v>
+        <v>264.0468897647926</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>35</v>
+        <v>253</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Austin Riley</t>
+          <t>Andrew Heaney</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>262.4862798459196</v>
+        <v>264.016940715391</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Luis Castillo</t>
+          <t>Merrill Kelly</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>262.4349968396842</v>
+        <v>263.7764556948042</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>9</v>
+        <v>243</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Alex Bregman</t>
+          <t>Freddy Peralta</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>262.2122922866933</v>
+        <v>263.5860135816079</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>208</v>
+        <v>40</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Clayton Kershaw</t>
+          <t>Andrés Giménez</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>262.1751386098265</v>
+        <v>263.0079831918005</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Matt Chapman</t>
+          <t>Harrison Bader</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>262.0119462134131</v>
+        <v>262.9256486912998</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>213</v>
+        <v>52</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Corbin Burnes</t>
+          <t>Bryan Reynolds</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>262.0049618396181</v>
+        <v>262.6875295202428</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>217</v>
+        <v>30</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Max Scherzer</t>
+          <t>Jose Altuve</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>261.9610711828025</v>
+        <v>262.58427386907</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>James Outman</t>
+          <t>Ozzie Albies</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>261.9087017146555</v>
+        <v>262.5416258910601</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Zack Wheeler</t>
+          <t>Hunter Brown</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>261.9000085454028</v>
+        <v>262.5131639717371</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Ryan Mountcastle</t>
+          <t>Alex Bregman</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>261.258846967396</v>
+        <v>262.5067632314416</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Christian Walker</t>
+          <t>Nolan Arenado</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>261.0806122474877</v>
+        <v>262.3636179589673</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>59</v>
+        <v>249</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Lars Nootbaar</t>
+          <t>Julio Urías</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>261.0710719307334</v>
+        <v>262.2022554353683</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>171</v>
+        <v>28</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Christopher Morel</t>
+          <t>Dansby Swanson</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>261.0203427898489</v>
+        <v>261.9235723988269</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>92</v>
+        <v>391</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Ha-Seong Kim</t>
+          <t>Camilo Doval</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>260.9614953003031</v>
+        <v>261.8684454514945</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Ryan McMahon</t>
+          <t>Kyle Schwarber</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>260.915554714618</v>
+        <v>261.6379598244187</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>150</v>
+        <v>396</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Josh Lowe</t>
+          <t>Pete Fairbanks</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>260.8165124355641</v>
+        <v>261.629851145098</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>143</v>
+        <v>365</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Tyler O'Neill</t>
+          <t>Devin Williams</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>260.810576415493</v>
+        <v>261.6024140291905</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>215</v>
+        <v>84</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Logan Webb</t>
+          <t>Anthony Volpe</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>260.7401433383429</v>
+        <v>261.4428865569364</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Chris Sale</t>
+          <t>Max Fried</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>260.5607355436018</v>
+        <v>261.0044660611674</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Riley Greene</t>
+          <t>Thairo Estrada</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>260.5307391985064</v>
+        <v>260.9039327362214</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>155</v>
+        <v>394</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Jean Segura</t>
+          <t>Jordan Romano</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>260.4872384622267</v>
+        <v>260.8713600509946</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Ketel Marte</t>
+          <t>Tommy Edman</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>260.4618039008558</v>
+        <v>260.4644164912073</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>86</v>
+        <v>264</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Anthony Rizzo</t>
+          <t>Alex Wood</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>260.354815829441</v>
+        <v>260.3581336113886</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Brandon Lowe</t>
+          <t>Daulton Varsho</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>260.3037683106459</v>
+        <v>260.0354056428159</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>97</v>
+        <v>239</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Trent Grisham</t>
+          <t>Marcus Stroman</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>260.2480150569858</v>
+        <v>259.8873135984697</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>43</v>
+        <v>238</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Masataka Yoshida</t>
+          <t>Mitch Keller</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>260.105420183318</v>
+        <v>259.7028553924302</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>156</v>
+        <v>259</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Bryson Stott</t>
+          <t>Miles Mikolas</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>260.022317840159</v>
+        <v>259.7020935624502</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Corey Seager</t>
+          <t>Chris Bassitt</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>259.8837841723032</v>
+        <v>259.676300381511</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>172</v>
+        <v>397</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Seth Brown</t>
+          <t>Andrés Muñoz</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>259.285826951284</v>
+        <v>258.940423629004</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Nathaniel Lowe</t>
+          <t>Xander Bogaerts</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>259.2448541962863</v>
+        <v>258.8980636214246</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>184</v>
+        <v>16</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Josh Naylor</t>
+          <t>Matt Chapman</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>259.2283690109655</v>
+        <v>258.7432673249048</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Brandon Nimmo</t>
+          <t>Christian Walker</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>259.0522141688332</v>
+        <v>258.7095978199212</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>220</v>
+        <v>41</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Nathan Eovaldi</t>
+          <t>Manny Machado</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>258.9222891121238</v>
+        <v>258.6200278416417</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Zach Neto</t>
+          <t>Corey Seager</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>258.7625125683948</v>
+        <v>258.5543740494209</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>58</v>
+        <v>373</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Max Muncy</t>
+          <t>Evan Phillips</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>258.6187173578498</v>
+        <v>258.3965416020707</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>211</v>
+        <v>270</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Zac Gallen</t>
+          <t>Grayson Rodriguez</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>258.5423761139365</v>
+        <v>258.1202039528783</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>225</v>
+        <v>43</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Yu Darvish</t>
+          <t>Masataka Yoshida</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>258.5199056657998</v>
+        <v>258.1157906034882</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Nolan Gorman</t>
+          <t>Tim Anderson</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>258.4697929827225</v>
+        <v>257.669907426868</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>166</v>
+        <v>252</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Chris Taylor</t>
+          <t>Reid Detmers</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>258.2806407337269</v>
+        <v>257.6352900551502</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Pablo López</t>
+          <t>James Paxton</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>258.1085165783842</v>
+        <v>257.5755494929106</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Anthony Santander</t>
+          <t>Gleyber Torres</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>258.1080126993522</v>
+        <v>257.4911012392705</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>142</v>
+        <v>60</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Lourdes Gurriel Jr.</t>
+          <t>Steven Kwan</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>257.8972831178076</v>
+        <v>256.9475441903199</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>231</v>
+        <v>67</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Logan Gilbert</t>
+          <t>Seiya Suzuki</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>257.7585056197939</v>
+        <v>256.7869215165549</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Kevin Kiermaier</t>
+          <t>Jarred Kelenic</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>257.7176162741466</v>
+        <v>256.7558860071477</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Alex Verdugo</t>
+          <t>Willy Adames</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>257.7141665305558</v>
+        <v>256.6361152728174</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Jake Cronenworth</t>
+          <t>Jeremy Peña</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>257.4989393837942</v>
+        <v>256.5585769271436</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Yandy Díaz</t>
+          <t>Teoscar Hernández</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>257.3521815276786</v>
+        <v>256.5291615023531</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Josh Jung</t>
+          <t>J.T. Realmuto</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>257.1336957671139</v>
+        <v>256.2959815150049</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>216</v>
+        <v>272</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Tyler Glasnow</t>
+          <t>Sean Manaea</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>257.0512491034785</v>
+        <v>256.2500754072952</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Joey Wendle</t>
+          <t>Ryan Mountcastle</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>257.0190857030317</v>
+        <v>256.1884814117841</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>21</v>
+        <v>241</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Will Smith</t>
+          <t>Brady Singer</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>256.9711727634016</v>
+        <v>256.131458015154</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>174</v>
+        <v>114</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>José Abreu</t>
+          <t>Jonathan India</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>256.9299806653549</v>
+        <v>255.6293446064888</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Austin Hays</t>
+          <t>Jose Siri</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>256.9269750019708</v>
+        <v>255.6090676388734</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Rowdy Tellez</t>
+          <t>Ian Happ</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>256.8651823903465</v>
+        <v>255.5056011348047</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Adam Frazier</t>
+          <t>Nathaniel Lowe</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>256.7295194566135</v>
+        <v>255.4051971174935</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>89</v>
+        <v>275</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Hunter Renfroe</t>
+          <t>Alek Manoah</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>256.6302129442901</v>
+        <v>255.1648647818997</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>223</v>
+        <v>122</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Joe Ryan</t>
+          <t>Jazz Chisholm Jr.</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>256.5011301166409</v>
+        <v>254.976604926719</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>50</v>
+        <v>268</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Jeff McNeil</t>
+          <t>JP Sears</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>256.490189632104</v>
+        <v>254.948590627937</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>11</v>
+        <v>361</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Adley Rutschman</t>
+          <t>José Alvarado</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>256.4811916937711</v>
+        <v>254.7356202436679</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>197</v>
+        <v>105</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Chas McCormick</t>
+          <t>Cody Bellinger</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>256.4755611954779</v>
+        <v>254.6963282782698</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>94</v>
+        <v>267</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Jorge Polanco</t>
+          <t>Nick Lodolo</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>256.4456575411058</v>
+        <v>254.6611783631252</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>39</v>
+        <v>254</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Luis Arraez</t>
+          <t>Justin Steele</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>256.2448706093535</v>
+        <v>254.4460176492078</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Vinnie Pasquantino</t>
+          <t>Anthony Rizzo</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>256.1244616231064</v>
+        <v>254.3979408506039</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>218</v>
+        <v>58</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Hunter Greene</t>
+          <t>Max Muncy</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>256.1017647539127</v>
+        <v>254.2532535313493</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Kris Bryant</t>
+          <t>Will Smith</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>255.9229023156919</v>
+        <v>254.2441855750062</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>161</v>
+        <v>263</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Justin Turner</t>
+          <t>Jon Gray</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>255.8484808196816</v>
+        <v>254.0891498204352</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>191</v>
+        <v>372</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Kolten Wong</t>
+          <t>Reynaldo López</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>255.8147557614911</v>
+        <v>253.9117766173713</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>74</v>
+        <v>388</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Ty France</t>
+          <t>Chris Martin</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>255.8098228610003</v>
+        <v>253.7559087361023</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>J.P. Crawford</t>
+          <t>Amed Rosario</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>255.7172258438545</v>
+        <v>253.6898664447401</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Mike Yastrzemski</t>
+          <t>Bryan Abreu</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>255.6523828076402</v>
+        <v>253.2135609283663</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Yoán Moncada</t>
+          <t>Anthony Santander</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>255.5626275716891</v>
+        <v>253.1798275051518</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Carlos Correa</t>
+          <t>Brandon Lowe</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>255.5570571847813</v>
+        <v>253.052532902534</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Mitch Haniger</t>
+          <t>Ke'Bryan Hayes</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>255.5514836538969</v>
+        <v>252.8966971652418</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>224</v>
+        <v>79</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Lance Lynn</t>
+          <t>Miguel Vargas</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>255.5360088999733</v>
+        <v>252.8958323878651</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>185</v>
+        <v>370</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Triston Casas</t>
+          <t>Matt Brash</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>255.5094973961778</v>
+        <v>252.7779915279877</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>164</v>
+        <v>42</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Jorge Soler</t>
+          <t>Yandy Díaz</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>255.4155509213696</v>
+        <v>252.7588284729613</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>107</v>
+        <v>366</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Salvador Perez</t>
+          <t>A.J. Minter</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>255.3285087465798</v>
+        <v>252.7533901878892</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Michael Conforto</t>
+          <t>Rowdy Tellez</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>255.2590516412581</v>
+        <v>252.6187422820768</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>27</v>
+        <v>378</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Sean Murphy</t>
+          <t>Adbert Alzolay</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>255.2371592802339</v>
+        <v>252.5846322210349</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>102</v>
+        <v>395</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Willson Contreras</t>
+          <t>Alexis Díaz</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>255.2252541881718</v>
+        <v>252.3208319810838</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>112</v>
+        <v>360</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Joey Gallo</t>
+          <t>Joe Kelly</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>255.2111620285863</v>
+        <v>252.2355522337035</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>189</v>
+        <v>73</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Brent Rooker</t>
+          <t>Ketel Marte</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>255.028928005694</v>
+        <v>252.127440919363</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>90</v>
+        <v>282</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>DJ LeMahieu</t>
+          <t>Bailey Ober</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>254.911582543258</v>
+        <v>252.0779912120491</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Santiago Espinal</t>
+          <t>Gunnar Henderson</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>254.8601933347505</v>
+        <v>252.0432443681366</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Brett Baty</t>
+          <t>Leody Taveras</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>254.8136142901956</v>
+        <v>252.0151058515516</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Taylor Ward</t>
+          <t>Javier Báez</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>254.7369832021583</v>
+        <v>251.6811455492527</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Andrew Vaughn</t>
+          <t>Vinnie Pasquantino</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>254.5738674125742</v>
+        <v>251.5326736784352</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>193</v>
+        <v>280</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Patrick Wisdom</t>
+          <t>Kyle Gibson</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>254.4445152324066</v>
+        <v>251.5227870080365</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>186</v>
+        <v>356</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Josh Bell</t>
+          <t>Aroldis Chapman</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>254.3387175077554</v>
+        <v>251.4136062803374</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Orlando Arcia</t>
+          <t>Matt McLain</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>254.337756856013</v>
+        <v>251.3606818484082</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Eugenio Suárez</t>
+          <t>Hunter Renfroe</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>254.2930389726044</v>
+        <v>251.228037039248</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>181</v>
+        <v>25</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Miguel Rojas</t>
+          <t>Brandon Nimmo</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>254.189203520225</v>
+        <v>251.1269661150589</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>227</v>
+        <v>111</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Charlie Morton</t>
+          <t>Nolan Gorman</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>254.1673307834396</v>
+        <v>251.0404686639058</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Mark Canha</t>
+          <t>Carlos Correa</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>254.1521828129586</v>
+        <v>250.8271479517935</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>230</v>
+        <v>271</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>George Kirby</t>
+          <t>Edward Cabrera</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>254.1060004283073</v>
+        <v>250.7606265931624</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Anthony Rendon</t>
+          <t>Andrew Benintendi</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>253.8097652869185</v>
+        <v>250.6863064470419</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>173</v>
+        <v>59</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Joc Pederson</t>
+          <t>Lars Nootbaar</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>253.6981081010361</v>
+        <v>250.6212378733967</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>228</v>
+        <v>95</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Joe Musgrove</t>
+          <t>James Outman</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>253.5562657124534</v>
+        <v>250.4106090450143</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>158</v>
+        <v>255</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Brandon Crawford</t>
+          <t>Ranger Suárez</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>253.5454466942202</v>
+        <v>250.1747387137736</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>244</v>
+        <v>107</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Lucas Giolito</t>
+          <t>Salvador Perez</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>253.4421319301185</v>
+        <v>250.1699465671905</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>115</v>
+        <v>376</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Paul DeJong</t>
+          <t>Hunter Harvey</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>253.4395361175359</v>
+        <v>250.1351992141</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>246</v>
+        <v>142</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Zach Eflin</t>
+          <t>Lourdes Gurriel Jr.</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>253.1838568985201</v>
+        <v>250.0618719853074</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Jack Suwinski</t>
+          <t>Adley Rutschman</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>253.0777135106028</v>
+        <v>249.9280445813449</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Alex Cobb</t>
+          <t>Josh Naylor</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>253.0620097196096</v>
+        <v>249.8794039328461</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>233</v>
+        <v>160</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Dylan Cease</t>
+          <t>Myles Straw</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>252.9925823910722</v>
+        <v>249.5787994438942</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Max Kepler</t>
+          <t>Kris Bryant</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>252.9664177417156</v>
+        <v>249.5692394999661</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Tony Kemp</t>
+          <t>José Abreu</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>252.849955022103</v>
+        <v>249.5362349997394</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>138</v>
+        <v>284</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Giancarlo Stanton</t>
+          <t>Aaron Civale</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>252.8329341422905</v>
+        <v>249.4939187900727</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Jeimer Candelario</t>
+          <t>Alex Verdugo</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>252.7849873255826</v>
+        <v>249.4811532696737</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>139</v>
+        <v>192</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Enrique Hernández</t>
+          <t>TJ Friedl</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>252.5656785475304</v>
+        <v>249.3921099360313</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>237</v>
+        <v>389</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Merrill Kelly</t>
+          <t>Craig Kimbrel</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>252.4135972777714</v>
+        <v>249.3631269412628</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>135</v>
+        <v>278</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>J.D. Davis</t>
+          <t>Jameson Taillon</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>252.3653749247751</v>
+        <v>249.2213330474372</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>140</v>
+        <v>257</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Mitch Garver</t>
+          <t>MacKenzie Gore</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>252.247029586474</v>
+        <v>249.1839491327184</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Connor Joe</t>
+          <t>Ryan McMahon</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>252.2051128145125</v>
+        <v>249.0689473850844</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>229</v>
+        <v>287</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Eduardo Rodriguez</t>
+          <t>Triston McKenzie</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>252.1915362071191</v>
+        <v>249.0619589085575</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Jordan Montgomery</t>
+          <t>Patrick Sandoval</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>252.1809038562048</v>
+        <v>248.8238217800171</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>242</v>
+        <v>27</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Luis Severino</t>
+          <t>Sean Murphy</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>252.1479433823312</v>
+        <v>248.6395611788532</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Emmanuel Clase</t>
+          <t>Mason Miller</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>251.9348566143321</v>
+        <v>248.6100903051245</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>71</v>
+        <v>277</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Cal Raleigh</t>
+          <t>Martín Pérez</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>251.8038609815275</v>
+        <v>248.399540223895</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>109</v>
+        <v>296</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Danny Jansen</t>
+          <t>Louie Varland</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>251.7470702997304</v>
+        <v>248.3070468139796</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Royce Lewis</t>
+          <t>Ty France</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>251.4808584844544</v>
+        <v>248.2018556920233</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>159</v>
+        <v>314</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Eloy Jiménez</t>
+          <t>Anthony DeSclafani</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>251.2254896961532</v>
+        <v>248.1917876311409</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Brian Anderson</t>
+          <t>Christopher Morel</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>251.1751618260418</v>
+        <v>248.1294289241067</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>336</v>
+        <v>164</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Josh Hader</t>
+          <t>Jorge Soler</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>250.9470910607513</v>
+        <v>248.0396331654701</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Dylan Carlson</t>
+          <t>Ezequiel Tovar</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>250.7535137750473</v>
+        <v>248.0203676703692</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>247</v>
+        <v>127</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Cristian Javier</t>
+          <t>Andrew Vaughn</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>250.6450000961298</v>
+        <v>247.9729645401454</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>195</v>
+        <v>297</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Jesse Winker</t>
+          <t>Steven Matz</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>250.5312036925668</v>
+        <v>247.9331934877848</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>110</v>
+        <v>292</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>William Contreras</t>
+          <t>Yusei Kikuchi</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>250.4466865637475</v>
+        <v>247.8991964662395</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Nestor Cortes</t>
+          <t>Kyle Bradish</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>250.2535018944378</v>
+        <v>247.5535759300865</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>352</v>
+        <v>75</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Liam Hendriks</t>
+          <t>Riley Greene</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>250.1097871346251</v>
+        <v>247.4570119793047</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>363</v>
+        <v>281</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Ryan Pressly</t>
+          <t>Drew Smyly</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>250.0780606886517</v>
+        <v>247.4238345545631</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>236</v>
+        <v>87</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Blake Snell</t>
+          <t>Jake Cronenworth</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>250.0556446416394</v>
+        <v>247.1698337147827</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Keibert Ruiz</t>
+          <t>Josh Rojas</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>249.9835544631651</v>
+        <v>247.1459341705508</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>176</v>
+        <v>310</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Brendan Donovan</t>
+          <t>Matt Strahm</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>249.870309812318</v>
+        <v>246.9916493355334</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Kodai Senga</t>
+          <t>Justin Turner</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>249.8408040083165</v>
+        <v>246.9721202529922</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Jonah Heim</t>
+          <t>Mitch Haniger</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>249.737203518192</v>
+        <v>246.9033913299576</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>226</v>
+        <v>299</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Sonny Gray</t>
+          <t>Eury Pérez</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>249.5993965958357</v>
+        <v>246.7702194898282</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>248</v>
+        <v>301</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Jesús Luzardo</t>
+          <t>Bryce Miller</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>249.5987289442235</v>
+        <v>246.4972607302481</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>81</v>
+        <v>286</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Isaac Paredes</t>
+          <t>Michael Wacha</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>249.5841268610222</v>
+        <v>246.4267000977457</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Travis d'Arnaud</t>
+          <t>Matthew Boyd</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>249.5262736961388</v>
+        <v>246.3511982338674</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>250</v>
+        <v>295</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>José Berríos</t>
+          <t>Taj Bradley</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>249.5065969495201</v>
+        <v>246.3297738309759</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>118</v>
+        <v>266</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Gabriel Moreno</t>
+          <t>Tanner Houck</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>249.4317236080755</v>
+        <v>246.2803405798837</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>350</v>
+        <v>113</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>David Bednar</t>
+          <t>Josh Jung</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>249.4024157177889</v>
+        <v>246.2676176995152</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>385</v>
+        <v>39</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Raisel Iglesias</t>
+          <t>Luis Arraez</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>249.3644632134468</v>
+        <v>246.2325241931615</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>339</v>
+        <v>283</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Ryan Helsley</t>
+          <t>Tony Gonsolin</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>249.1303801511657</v>
+        <v>246.0576016605042</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>391</v>
+        <v>290</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Camilo Doval</t>
+          <t>Domingo Germán</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>249.078274722906</v>
+        <v>246.0499304351114</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>260</v>
+        <v>185</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Chris Bassitt</t>
+          <t>Triston Casas</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>249.0450684868848</v>
+        <v>245.9560275606953</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>177</v>
+        <v>50</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Jake Meyers</t>
+          <t>Jeff McNeil</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>249.0361252293371</v>
+        <v>245.9415182429306</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Alejandro Kirk</t>
+          <t>Austin Hays</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>248.9668177303439</v>
+        <v>245.8759793202248</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>239</v>
+        <v>138</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Marcus Stroman</t>
+          <t>Giancarlo Stanton</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>248.886695778743</v>
+        <v>245.8344240394036</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Félix Bautista</t>
+          <t>Jack Flaherty</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>248.8001729347901</v>
+        <v>245.7202946693101</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Miles Mikolas</t>
+          <t>Tarik Skubal</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>248.6969407985838</v>
+        <v>245.603287579927</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>151</v>
+        <v>302</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Luis Urías</t>
+          <t>David Peterson</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>248.5433517214161</v>
+        <v>245.4314457589807</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Ramón Urías</t>
+          <t>Bryce Elder</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>248.4612526730656</v>
+        <v>245.3663990684353</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>234</v>
+        <v>131</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Hunter Brown</t>
+          <t>Michael Conforto</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>248.2775945543321</v>
+        <v>245.3553475313732</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>275</v>
+        <v>172</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Alek Manoah</t>
+          <t>Seth Brown</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>248.2100220672065</v>
+        <v>245.3491125298606</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>243</v>
+        <v>143</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Freddy Peralta</t>
+          <t>Tyler O'Neill</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>247.9302513417804</v>
+        <v>245.2374245094435</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>238</v>
+        <v>321</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Mitch Keller</t>
+          <t>Dean Kremer</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>247.8128870792993</v>
+        <v>244.8195599857617</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Julio Urías</t>
+          <t>Garrett Whitlock</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>247.4348095526811</v>
+        <v>244.8036857627859</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>251</v>
+        <v>377</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Brandon Woodruff</t>
+          <t>Aaron Bummer</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>247.3926319429146</v>
+        <v>244.5740315719933</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>245</v>
+        <v>186</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Carlos Rodón</t>
+          <t>Josh Bell</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>247.002628033719</v>
+        <v>244.4507896008489</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>394</v>
+        <v>94</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Jordan Romano</t>
+          <t>Jorge Polanco</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>246.8502440514031</v>
+        <v>244.2722196002829</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>241</v>
+        <v>190</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Brady Singer</t>
+          <t>Brandon Marsh</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>246.5443259379454</v>
+        <v>244.1969232536876</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>253</v>
+        <v>125</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Andrew Heaney</t>
+          <t>Taylor Walls</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>246.4564632916661</v>
+        <v>244.172703160225</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>182</v>
+        <v>273</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Nick Fortes</t>
+          <t>Patrick Corbin</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>246.0254881700442</v>
+        <v>244.160076853212</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>365</v>
+        <v>279</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Devin Williams</t>
+          <t>Zack Greinke</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>245.7757668952209</v>
+        <v>244.1322341081642</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>396</v>
+        <v>97</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Pete Fairbanks</t>
+          <t>Trent Grisham</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>245.5307650305088</v>
+        <v>244.1065039848434</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Yasmani Grandal</t>
+          <t>Ramón Laureano</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>245.5284674161447</v>
+        <v>244.1039884456147</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>162</v>
+        <v>265</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Jake Rogers</t>
+          <t>Brayan Bello</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>245.3287047813878</v>
+        <v>244.1006266758867</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>165</v>
+        <v>318</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Christian Vázquez</t>
+          <t>Drew Rasmussen</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>245.302553701017</v>
+        <v>244.0731956816917</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>168</v>
+        <v>327</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Christian Bethancourt</t>
+          <t>Tyler Wells</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>245.2986662407613</v>
+        <v>244.0717764438133</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Yan Gomes</t>
+          <t>Brent Rooker</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>245.2424906728402</v>
+        <v>244.0436606654717</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>373</v>
+        <v>157</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Evan Phillips</t>
+          <t>Manuel Margot</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>245.0600160953695</v>
+        <v>243.9337611153957</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>263</v>
+        <v>325</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Jon Gray</t>
+          <t>Brandon Pfaadt</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>244.8102924650481</v>
+        <v>243.8906844354082</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>280</v>
+        <v>69</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Kyle Gibson</t>
+          <t>Brett Baty</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>244.6061317424185</v>
+        <v>243.8611077960229</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>240</v>
+        <v>101</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>James Paxton</t>
+          <t>Mike Yastrzemski</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>244.5797282692761</v>
+        <v>243.6271926149414</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Reid Detmers</t>
+          <t>Taijuan Walker</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>244.1462072320756</v>
+        <v>243.6255532058257</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>395</v>
+        <v>68</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Alexis Díaz</t>
+          <t>Anthony Rendon</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>244.0911081397982</v>
+        <v>243.5419064962589</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>261</v>
+        <v>112</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Max Fried</t>
+          <t>Joey Gallo</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>243.9991357863301</v>
+        <v>243.3005501592671</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>277</v>
+        <v>315</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Martín Pérez</t>
+          <t>Logan Allen</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>243.8082793971573</v>
+        <v>243.2573852818586</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>254</v>
+        <v>317</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Justin Steele</t>
+          <t>Carlos Carrasco</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>243.7749862131793</v>
+        <v>243.0596550235279</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>264</v>
+        <v>80</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Alex Wood</t>
+          <t>Yoán Moncada</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>243.7192461152682</v>
+        <v>242.8984084726206</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>270</v>
+        <v>194</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Grayson Rodriguez</t>
+          <t>Jon Berti</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>243.3987052022512</v>
+        <v>242.7154322848727</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Mike Zunino</t>
+          <t>Joc Pederson</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>243.2061013795604</v>
+        <v>242.6988360853819</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>137</v>
+        <v>337</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Jose Trevino</t>
+          <t>Kenta Maeda</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>242.6943788994438</v>
+        <v>242.3719237646971</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>JP Sears</t>
+          <t>Taylor Ward</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>242.6190105846304</v>
+        <v>242.3280829464717</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>198</v>
+        <v>349</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Kyle Higashioka</t>
+          <t>Marco Gonzales</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>242.5477232221666</v>
+        <v>242.2304068439096</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>305</v>
+        <v>104</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Jhoan Duran</t>
+          <t>Eugenio Suárez</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>242.5077914784037</v>
+        <v>242.1714368361014</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>183</v>
+        <v>285</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Ryan Jeffers</t>
+          <t>Lance McCullers Jr.</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>242.1730518930089</v>
+        <v>242.1315583765122</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>262</v>
+        <v>146</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Patrick Sandoval</t>
+          <t>Zach Neto</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>242.036949691019</v>
+        <v>241.903627898913</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>255</v>
+        <v>159</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Ranger Suárez</t>
+          <t>Eloy Jiménez</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>241.9014182540766</v>
+        <v>241.6898931106098</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>272</v>
+        <v>99</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Sean Manaea</t>
+          <t>Orlando Arcia</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>241.7922262884919</v>
+        <v>241.5424298163017</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>271</v>
+        <v>92</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Edward Cabrera</t>
+          <t>Ha-Seong Kim</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>241.7437314197042</v>
+        <v>241.4681640013706</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>278</v>
+        <v>156</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Jameson Taillon</t>
+          <t>Bryson Stott</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>241.2165742821869</v>
+        <v>241.4378786588912</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>269</v>
+        <v>90</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Bryce Elder</t>
+          <t>DJ LeMahieu</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>240.8763548718213</v>
+        <v>241.3888086134666</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>257</v>
+        <v>379</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>MacKenzie Gore</t>
+          <t>DL Hall</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>240.8675950845056</v>
+        <v>241.3408905827725</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>282</v>
+        <v>150</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Bailey Ober</t>
+          <t>Josh Lowe</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>240.7664000485074</v>
+        <v>241.0610078812622</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>314</v>
+        <v>135</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Anthony DeSclafani</t>
+          <t>J.D. Davis</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>240.7651143311505</v>
+        <v>240.8831536947076</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>283</v>
+        <v>102</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Tony Gonsolin</t>
+          <t>Willson Contreras</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>240.7628087275722</v>
+        <v>240.8428005106371</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>273</v>
+        <v>316</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Patrick Corbin</t>
+          <t>Trevor Rogers</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>240.7435633801082</v>
+        <v>240.4633604376838</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>288</v>
+        <v>126</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Kyle Bradish</t>
+          <t>Jeimer Candelario</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>240.4553828113204</v>
+        <v>240.4054027786941</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Matthew Boyd</t>
+          <t>Adam Wainwright</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>240.4049131776326</v>
+        <v>240.2811952615925</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>286</v>
+        <v>155</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Michael Wacha</t>
+          <t>Jean Segura</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>239.9917957488478</v>
+        <v>240.1829203955231</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Jack Flaherty</t>
+          <t>Tyler Anderson</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>239.7356701320379</v>
+        <v>239.8467581337607</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>349</v>
+        <v>258</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Marco Gonzales</t>
+          <t>Graham Ashcraft</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>239.7288678129836</v>
+        <v>239.8290573555381</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
-        <v>322</v>
+        <v>61</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Tyler Anderson</t>
+          <t>J.P. Crawford</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>239.3255306204955</v>
+        <v>239.6108123233553</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
-        <v>258</v>
+        <v>166</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Graham Ashcraft</t>
+          <t>Chris Taylor</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>239.3035164582059</v>
+        <v>239.6026392333368</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Dean Kremer</t>
+          <t>Luke Weaver</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>239.2197232128811</v>
+        <v>239.4789413856148</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Drew Smyly</t>
+          <t>Michael Lorenzen</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>239.1637958340323</v>
+        <v>239.467759957811</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
-        <v>284</v>
+        <v>329</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Aaron Civale</t>
+          <t>Cal Quantrill</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>239.1583120523783</v>
+        <v>239.2464355049623</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Nick Lodolo</t>
+          <t>Michael Kopech</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>239.0128669583346</v>
+        <v>239.2326388931235</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
-        <v>279</v>
+        <v>320</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Zack Greinke</t>
+          <t>José Quintana</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>238.9906469585985</v>
+        <v>239.094349009639</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Taijuan Walker</t>
+          <t>Seth Lugo</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>238.9873901111454</v>
+        <v>239.0542411006277</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Cal Quantrill</t>
+          <t>Clarke Schmidt</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>238.9799505681378</v>
+        <v>238.9106489625077</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Triston McKenzie</t>
+          <t>Griffin Canning</t>
         </is>
       </c>
       <c r="C308" t="n">
-        <v>238.9712641654601</v>
+        <v>238.886712504134</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Adam Wainwright</t>
+          <t>Braxton Garrett</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>238.7766134568258</v>
+        <v>238.8665188054921</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
-        <v>376</v>
+        <v>195</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Hunter Harvey</t>
+          <t>Jesse Winker</t>
         </is>
       </c>
       <c r="C310" t="n">
-        <v>238.6440794616167</v>
+        <v>238.5717038023001</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
-        <v>290</v>
+        <v>140</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Domingo Germán</t>
+          <t>Mitch Garver</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>238.6431457875601</v>
+        <v>238.5343953868326</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
-        <v>389</v>
+        <v>109</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Craig Kimbrel</t>
+          <t>Danny Jansen</t>
         </is>
       </c>
       <c r="C312" t="n">
-        <v>238.62012117372</v>
+        <v>238.5333430064718</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
-        <v>266</v>
+        <v>193</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Tanner Houck</t>
+          <t>Patrick Wisdom</t>
         </is>
       </c>
       <c r="C313" t="n">
-        <v>238.5988260563826</v>
+        <v>238.4938555778807</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
-        <v>388</v>
+        <v>289</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Chris Martin</t>
+          <t>Rich Hill</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>238.0731739129641</v>
+        <v>238.3874869636352</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
-        <v>299</v>
+        <v>71</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Eury Pérez</t>
+          <t>Cal Raleigh</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>237.9938726459122</v>
+        <v>238.1501092288875</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
-        <v>378</v>
+        <v>332</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Adbert Alzolay</t>
+          <t>Tanner Bibee</t>
         </is>
       </c>
       <c r="C316" t="n">
-        <v>237.9271500212621</v>
+        <v>237.9339225937831</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
-        <v>324</v>
+        <v>180</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Josiah Gray</t>
+          <t>Mark Canha</t>
         </is>
       </c>
       <c r="C317" t="n">
-        <v>237.8777242729942</v>
+        <v>237.8549081008962</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
-        <v>295</v>
+        <v>343</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Taj Bradley</t>
+          <t>José Urquidy</t>
         </is>
       </c>
       <c r="C318" t="n">
-        <v>237.7796574990666</v>
+        <v>237.5941769681924</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
-        <v>308</v>
+        <v>121</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Michael Lorenzen</t>
+          <t>Max Kepler</t>
         </is>
       </c>
       <c r="C319" t="n">
-        <v>237.729581005253</v>
+        <v>237.4914235750052</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
-        <v>301</v>
+        <v>197</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Bryce Miller</t>
+          <t>Chas McCormick</t>
         </is>
       </c>
       <c r="C320" t="n">
-        <v>237.7014687152461</v>
+        <v>237.3018803843308</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Louie Varland</t>
+          <t>Ken Waldichuk</t>
         </is>
       </c>
       <c r="C321" t="n">
-        <v>237.6180651122033</v>
+        <v>237.1231393488382</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Yusei Kikuchi</t>
+          <t>Mike Clevinger</t>
         </is>
       </c>
       <c r="C322" t="n">
-        <v>237.4937969346036</v>
+        <v>236.9224444677698</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Brayan Bello</t>
+          <t>Isaac Paredes</t>
         </is>
       </c>
       <c r="C323" t="n">
-        <v>237.2576211344761</v>
+        <v>236.9213443604243</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
-        <v>317</v>
+        <v>139</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Carlos Carrasco</t>
+          <t>Enrique Hernández</t>
         </is>
       </c>
       <c r="C324" t="n">
-        <v>237.2326115019139</v>
+        <v>236.6900311946937</v>
       </c>
     </row>
     <row r="325">
@@ -4654,982 +4654,982 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>237.0632476008502</v>
+        <v>236.5994171475754</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Luke Weaver</t>
+          <t>Dustin May</t>
         </is>
       </c>
       <c r="C326" t="n">
-        <v>236.8087510164629</v>
+        <v>236.5197644402532</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
-        <v>297</v>
+        <v>369</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Steven Matz</t>
+          <t>Tylor Megill</t>
         </is>
       </c>
       <c r="C327" t="n">
-        <v>236.7658620591936</v>
+        <v>236.393491361557</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
-        <v>276</v>
+        <v>387</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Garrett Whitlock</t>
+          <t>Ross Stripling</t>
         </is>
       </c>
       <c r="C328" t="n">
-        <v>236.568123519409</v>
+        <v>236.361965930231</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
-        <v>366</v>
+        <v>324</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>A.J. Minter</t>
+          <t>Josiah Gray</t>
         </is>
       </c>
       <c r="C329" t="n">
-        <v>236.456035439219</v>
+        <v>236.2483312094345</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
-        <v>372</v>
+        <v>167</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Reynaldo López</t>
+          <t>Adam Frazier</t>
         </is>
       </c>
       <c r="C330" t="n">
-        <v>236.4289188052757</v>
+        <v>236.2051817778805</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
-        <v>351</v>
+        <v>110</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Bryan Abreu</t>
+          <t>William Contreras</t>
         </is>
       </c>
       <c r="C331" t="n">
-        <v>236.330040419061</v>
+        <v>236.1495450560014</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Aroldis Chapman</t>
+          <t>Cole Irvin</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>236.3279735700087</v>
+        <v>236.0493936481046</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
-        <v>327</v>
+        <v>367</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Tyler Wells</t>
+          <t>Bailey Falter</t>
         </is>
       </c>
       <c r="C333" t="n">
-        <v>236.3071372150379</v>
+        <v>236.0200518611967</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
-        <v>285</v>
+        <v>170</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Lance McCullers Jr.</t>
+          <t>Jack Suwinski</t>
         </is>
       </c>
       <c r="C334" t="n">
-        <v>236.1276623936613</v>
+        <v>235.9261233145577</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
-        <v>370</v>
+        <v>130</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Matt Brash</t>
+          <t>Kevin Kiermaier</t>
         </is>
       </c>
       <c r="C335" t="n">
-        <v>236.0437996591371</v>
+        <v>235.7969454766214</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
-        <v>300</v>
+        <v>57</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Michael Kopech</t>
+          <t>Alejandro Kirk</t>
         </is>
       </c>
       <c r="C336" t="n">
-        <v>236.001686122938</v>
+        <v>235.7858927057507</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
-        <v>361</v>
+        <v>152</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>José Alvarado</t>
+          <t>Travis d'Arnaud</t>
         </is>
       </c>
       <c r="C337" t="n">
-        <v>235.9529529562426</v>
+        <v>235.6449624702689</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Brandon Pfaadt</t>
+          <t>Matthew Liberatore</t>
         </is>
       </c>
       <c r="C338" t="n">
-        <v>235.921935136867</v>
+        <v>235.5399005028906</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
-        <v>360</v>
+        <v>303</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Joe Kelly</t>
+          <t>Paul Blackburn</t>
         </is>
       </c>
       <c r="C339" t="n">
-        <v>235.8248666179333</v>
+        <v>235.3371610060527</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Ken Waldichuk</t>
+          <t>Kyle Wright</t>
         </is>
       </c>
       <c r="C340" t="n">
-        <v>235.1236178676339</v>
+        <v>235.1838957696133</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
-        <v>303</v>
+        <v>115</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Paul Blackburn</t>
+          <t>Paul DeJong</t>
         </is>
       </c>
       <c r="C341" t="n">
-        <v>235.1198433435632</v>
+        <v>234.9226750405045</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Logan Allen</t>
+          <t>Brandon Crawford</t>
         </is>
       </c>
       <c r="C342" t="n">
-        <v>234.8074487182564</v>
+        <v>234.571112896798</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
-        <v>353</v>
+        <v>179</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Jordan Lyles</t>
+          <t>Joey Wendle</t>
         </is>
       </c>
       <c r="C343" t="n">
-        <v>234.7997268491752</v>
+        <v>234.3168918173367</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Johan Oviedo</t>
+          <t>Nick Martinez</t>
         </is>
       </c>
       <c r="C344" t="n">
-        <v>234.1874368417273</v>
+        <v>234.3013117197186</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Tarik Skubal</t>
+          <t>Daniel Lynch</t>
         </is>
       </c>
       <c r="C345" t="n">
-        <v>234.1256192731184</v>
+        <v>234.1262101233546</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
-        <v>289</v>
+        <v>178</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Rich Hill</t>
+          <t>Connor Joe</t>
         </is>
       </c>
       <c r="C346" t="n">
-        <v>234.076122177507</v>
+        <v>234.1109732536346</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
-        <v>319</v>
+        <v>199</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Mike Clevinger</t>
+          <t>Brian Anderson</t>
         </is>
       </c>
       <c r="C347" t="n">
-        <v>234.0287083740771</v>
+        <v>233.8110035460904</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>José Urquidy</t>
+          <t>Johan Oviedo</t>
         </is>
       </c>
       <c r="C348" t="n">
-        <v>234.0225662859024</v>
+        <v>233.6738941168804</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
-        <v>302</v>
+        <v>163</v>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>David Peterson</t>
+          <t>Santiago Espinal</t>
         </is>
       </c>
       <c r="C349" t="n">
-        <v>234.0139707406533</v>
+        <v>233.5458599968544</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
-        <v>337</v>
+        <v>393</v>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Kenta Maeda</t>
+          <t>J.P. France</t>
         </is>
       </c>
       <c r="C350" t="n">
-        <v>233.9079539980002</v>
+        <v>232.8403538681999</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
-        <v>313</v>
+        <v>362</v>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Seth Lugo</t>
+          <t>Andrew Abbott</t>
         </is>
       </c>
       <c r="C351" t="n">
-        <v>233.8372437107867</v>
+        <v>232.4244255692327</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
-        <v>311</v>
+        <v>368</v>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Griffin Canning</t>
+          <t>Drew Rucinski</t>
         </is>
       </c>
       <c r="C352" t="n">
-        <v>233.4849447335931</v>
+        <v>232.4070283173758</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
-        <v>316</v>
+        <v>145</v>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Trevor Rogers</t>
+          <t>Keibert Ruiz</t>
         </is>
       </c>
       <c r="C353" t="n">
-        <v>232.5908605057633</v>
+        <v>232.227349505697</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
-        <v>397</v>
+        <v>334</v>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Andrés Muñoz</t>
+          <t>Noah Syndergaard</t>
         </is>
       </c>
       <c r="C354" t="n">
-        <v>232.3332862154617</v>
+        <v>232.1959958394352</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
-        <v>334</v>
+        <v>169</v>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Noah Syndergaard</t>
+          <t>Dylan Carlson</t>
         </is>
       </c>
       <c r="C355" t="n">
-        <v>232.2896322447272</v>
+        <v>232.1453330893571</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
-        <v>309</v>
+        <v>191</v>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Daniel Lynch</t>
+          <t>Kolten Wong</t>
         </is>
       </c>
       <c r="C356" t="n">
-        <v>232.219547837594</v>
+        <v>231.7424035301263</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
-        <v>328</v>
+        <v>386</v>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Corey Kluber</t>
+          <t>Colin Rea</t>
         </is>
       </c>
       <c r="C357" t="n">
-        <v>231.9799507363126</v>
+        <v>231.5977683549828</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Tanner Bibee</t>
+          <t>Luis L. Ortiz</t>
         </is>
       </c>
       <c r="C358" t="n">
-        <v>231.7602836325533</v>
+        <v>231.5373859783369</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
-        <v>291</v>
+        <v>51</v>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Kyle Freeland</t>
+          <t>Jonah Heim</t>
         </is>
       </c>
       <c r="C359" t="n">
-        <v>231.7514192648662</v>
+        <v>231.4218249917324</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Drew Rucinski</t>
+          <t>Michael Soroka</t>
         </is>
       </c>
       <c r="C360" t="n">
-        <v>231.6883239031409</v>
+        <v>231.4021258930908</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
-        <v>377</v>
+        <v>341</v>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Aaron Bummer</t>
+          <t>Spencer Turnbull</t>
         </is>
       </c>
       <c r="C361" t="n">
-        <v>231.6738599276392</v>
+        <v>231.3625395745499</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>José Quintana</t>
+          <t>Ryne Nelson</t>
         </is>
       </c>
       <c r="C362" t="n">
-        <v>231.5224721711148</v>
+        <v>231.3523069106829</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Drew Rasmussen</t>
+          <t>Nick Pivetta</t>
         </is>
       </c>
       <c r="C363" t="n">
-        <v>231.4470677883135</v>
+        <v>231.1700130880795</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
-        <v>354</v>
+        <v>181</v>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Ryne Nelson</t>
+          <t>Miguel Rojas</t>
         </is>
       </c>
       <c r="C364" t="n">
-        <v>231.3764175965185</v>
+        <v>230.9195414635425</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
-        <v>312</v>
+        <v>375</v>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Luis L. Ortiz</t>
+          <t>Bobby Miller</t>
         </is>
       </c>
       <c r="C365" t="n">
-        <v>231.3626853531595</v>
+        <v>230.8430063137963</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
-        <v>398</v>
+        <v>358</v>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Cole Irvin</t>
+          <t>Kyle Hendricks</t>
         </is>
       </c>
       <c r="C366" t="n">
-        <v>231.339973903443</v>
+        <v>230.716186177743</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
-        <v>358</v>
+        <v>328</v>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Kyle Hendricks</t>
+          <t>Corey Kluber</t>
         </is>
       </c>
       <c r="C367" t="n">
-        <v>231.3291945716186</v>
+        <v>230.6962804155567</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Mason Miller</t>
+          <t>Jordan Lyles</t>
         </is>
       </c>
       <c r="C368" t="n">
-        <v>231.0391135941022</v>
+        <v>230.3712840883023</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
-        <v>331</v>
+        <v>151</v>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Braxton Garrett</t>
+          <t>Luis Urías</t>
         </is>
       </c>
       <c r="C369" t="n">
-        <v>230.8225223787022</v>
+        <v>229.8289504773675</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>J.P. France</t>
+          <t>Dane Dunning</t>
         </is>
       </c>
       <c r="C370" t="n">
-        <v>230.6925562676959</v>
+        <v>229.7187529623257</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
-        <v>323</v>
+        <v>176</v>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Matthew Liberatore</t>
+          <t>Brendan Donovan</t>
         </is>
       </c>
       <c r="C371" t="n">
-        <v>230.5324851185664</v>
+        <v>229.6085185699212</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
-        <v>310</v>
+        <v>154</v>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Matt Strahm</t>
+          <t>Royce Lewis</t>
         </is>
       </c>
       <c r="C372" t="n">
-        <v>230.4609473346569</v>
+        <v>229.4415123982416</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
-        <v>338</v>
+        <v>118</v>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Clarke Schmidt</t>
+          <t>Gabriel Moreno</t>
         </is>
       </c>
       <c r="C373" t="n">
-        <v>230.4435766513022</v>
+        <v>228.9951198799396</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
-        <v>335</v>
+        <v>149</v>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Kyle Wright</t>
+          <t>Ramón Urías</t>
         </is>
       </c>
       <c r="C374" t="n">
-        <v>230.343175580352</v>
+        <v>228.620895920738</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
-        <v>345</v>
+        <v>187</v>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Adrian Houser</t>
+          <t>Tony Kemp</t>
         </is>
       </c>
       <c r="C375" t="n">
-        <v>230.0773391677552</v>
+        <v>228.4148762317583</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Nick Martinez</t>
+          <t>Drey Jameson</t>
         </is>
       </c>
       <c r="C376" t="n">
-        <v>229.5424170490134</v>
+        <v>227.8083488405202</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Dustin May</t>
+          <t>Hayden Wesneski</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>229.5329698891173</v>
+        <v>227.7033575103038</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
-        <v>341</v>
+        <v>383</v>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Spencer Turnbull</t>
+          <t>Kyle Muller</t>
         </is>
       </c>
       <c r="C378" t="n">
-        <v>229.3426607280978</v>
+        <v>227.2814556154006</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Tylor Megill</t>
+          <t>Vince Velasquez</t>
         </is>
       </c>
       <c r="C379" t="n">
-        <v>228.7357660372597</v>
+        <v>226.9784091609422</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
-        <v>387</v>
+        <v>345</v>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Ross Stripling</t>
+          <t>Adrian Houser</t>
         </is>
       </c>
       <c r="C380" t="n">
-        <v>228.6621817787749</v>
+        <v>226.8779100475118</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
-        <v>392</v>
+        <v>177</v>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Josh Fleming</t>
+          <t>Jake Meyers</t>
         </is>
       </c>
       <c r="C381" t="n">
-        <v>228.5778297120279</v>
+        <v>226.8189742386414</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Hayden Wesneski</t>
+          <t>Kyle Harrison</t>
         </is>
       </c>
       <c r="C382" t="n">
-        <v>228.2340107512983</v>
+        <v>226.6861448052511</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Bailey Falter</t>
+          <t>Gavin Stone</t>
         </is>
       </c>
       <c r="C383" t="n">
-        <v>228.209774507004</v>
+        <v>226.2555602731868</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Colin Rea</t>
+          <t>Josh Fleming</t>
         </is>
       </c>
       <c r="C384" t="n">
-        <v>228.0741853460399</v>
+        <v>225.7277940281048</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
-        <v>362</v>
+        <v>103</v>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Andrew Abbott</t>
+          <t>Yasmani Grandal</t>
         </is>
       </c>
       <c r="C385" t="n">
-        <v>227.9611282803745</v>
+        <v>225.5161997361181</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Michael Soroka</t>
+          <t>José Suarez</t>
         </is>
       </c>
       <c r="C386" t="n">
-        <v>227.8884295937328</v>
+        <v>224.6031775841565</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>DL Hall</t>
+          <t>Trevor Williams</t>
         </is>
       </c>
       <c r="C387" t="n">
-        <v>227.7855503838191</v>
+        <v>224.465943466832</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
-        <v>375</v>
+        <v>188</v>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Bobby Miller</t>
+          <t>Yan Gomes</t>
         </is>
       </c>
       <c r="C388" t="n">
-        <v>227.7077091515683</v>
+        <v>222.776336309787</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
-        <v>357</v>
+        <v>291</v>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Nick Pivetta</t>
+          <t>Kyle Freeland</t>
         </is>
       </c>
       <c r="C389" t="n">
-        <v>227.6889293925651</v>
+        <v>222.6241739838415</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Kyle Muller</t>
+          <t>Wade Miley</t>
         </is>
       </c>
       <c r="C390" t="n">
-        <v>227.6728880632063</v>
+        <v>221.9527161942306</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
-        <v>359</v>
+        <v>390</v>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Vince Velasquez</t>
+          <t>Zach Davies</t>
         </is>
       </c>
       <c r="C391" t="n">
-        <v>227.4130487351657</v>
+        <v>220.9886728695478</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
-        <v>390</v>
+        <v>168</v>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Zach Davies</t>
+          <t>Christian Bethancourt</t>
         </is>
       </c>
       <c r="C392" t="n">
-        <v>226.866339312006</v>
+        <v>220.7129690525015</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
-        <v>347</v>
+        <v>182</v>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Trevor Williams</t>
+          <t>Nick Fortes</t>
         </is>
       </c>
       <c r="C393" t="n">
-        <v>226.8227254046508</v>
+        <v>219.7692974836892</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
-        <v>364</v>
+        <v>165</v>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Kyle Harrison</t>
+          <t>Christian Vázquez</t>
         </is>
       </c>
       <c r="C394" t="n">
-        <v>226.2955525745723</v>
+        <v>219.1113453094725</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
-        <v>382</v>
+        <v>162</v>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Dane Dunning</t>
+          <t>Jake Rogers</t>
         </is>
       </c>
       <c r="C395" t="n">
-        <v>226.0185963859506</v>
+        <v>218.8895677847467</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
-        <v>374</v>
+        <v>175</v>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>José Suarez</t>
+          <t>Mike Zunino</t>
         </is>
       </c>
       <c r="C396" t="n">
-        <v>225.9666104836253</v>
+        <v>218.6037632462538</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
-        <v>384</v>
+        <v>183</v>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Gavin Stone</t>
+          <t>Ryan Jeffers</t>
         </is>
       </c>
       <c r="C397" t="n">
-        <v>225.8948438233981</v>
+        <v>215.8918951019085</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
-        <v>342</v>
+        <v>198</v>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Austin Gomber</t>
+          <t>Kyle Higashioka</t>
         </is>
       </c>
       <c r="C398" t="n">
-        <v>225.8782640922987</v>
+        <v>215.7312700612986</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
-        <v>381</v>
+        <v>137</v>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Drey Jameson</t>
+          <t>Jose Trevino</t>
         </is>
       </c>
       <c r="C399" t="n">
-        <v>224.78595826697</v>
+        <v>214.2002153662308</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Wade Miley</t>
+          <t>Austin Gomber</t>
         </is>
       </c>
       <c r="C400" t="n">
-        <v>224.4617248270191</v>
+        <v>213.5236894654493</v>
       </c>
     </row>
   </sheetData>

--- a/predictions.xlsx
+++ b/predictions.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>316.9613784194689</v>
+        <v>318.4255953165891</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>312.6228888418123</v>
+        <v>312.6591878532291</v>
       </c>
     </row>
     <row r="4">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>308.2266264139731</v>
+        <v>309.4106766875283</v>
       </c>
     </row>
     <row r="5">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>298.9679726217672</v>
+        <v>301.1461484617391</v>
       </c>
     </row>
     <row r="6">
@@ -507,59 +507,59 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>298.4990454794165</v>
+        <v>300.6772213193884</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>4</v>
+        <v>207</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fernando Tatis Jr.</t>
+          <t>Gerrit Cole</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>296.8601549372832</v>
+        <v>298.894596734129</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>207</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Gerrit Cole</t>
+          <t>Fernando Tatis Jr.</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>296.0024619513055</v>
+        <v>298.0442052108384</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Justin Verlander</t>
+          <t>Framber Valdez</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>294.7871462246481</v>
+        <v>297.4956712926299</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Framber Valdez</t>
+          <t>Justin Verlander</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>293.1756186241029</v>
+        <v>296.96532206462</v>
       </c>
     </row>
     <row r="11">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>292.1031070472019</v>
+        <v>294.9952418300255</v>
       </c>
     </row>
     <row r="12">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>291.9311707228773</v>
+        <v>294.1093465628491</v>
       </c>
     </row>
     <row r="13">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>291.0910573108833</v>
+        <v>292.5552742080036</v>
       </c>
     </row>
     <row r="14">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>289.8653409958952</v>
+        <v>291.3295578930154</v>
       </c>
     </row>
     <row r="15">
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>289.4135903398737</v>
+        <v>290.597640613429</v>
       </c>
     </row>
     <row r="16">
@@ -637,20 +637,20 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>288.0896892252389</v>
+        <v>290.2678650652109</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Chris Sale</t>
+          <t>Sandy Alcantara</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>286.4427974050832</v>
+        <v>288.8813705115873</v>
       </c>
     </row>
     <row r="18">
@@ -663,98 +663,98 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>286.128578607847</v>
+        <v>288.3067544478189</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sandy Alcantara</t>
+          <t>Luis Castillo</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>285.275276785912</v>
+        <v>288.0801493152592</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Luis Castillo</t>
+          <t>Chris Sale</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>285.1880145324355</v>
+        <v>287.9070143022035</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>6</v>
+        <v>219</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>José Ramírez</t>
+          <t>Shane Bieber</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>284.9743345829564</v>
+        <v>287.745612621812</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Aaron Judge</t>
+          <t>José Ramírez</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>284.9148191841593</v>
+        <v>286.1583848565116</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Shane Bieber</t>
+          <t>Aaron Judge</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>284.8534778389884</v>
+        <v>286.0988694577145</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Tyler Glasnow</t>
+          <t>Nathan Eovaldi</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>283.0547173778518</v>
+        <v>284.1710443770691</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Nathan Eovaldi</t>
+          <t>Tyler Glasnow</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>282.7068274799489</v>
+        <v>283.8049753321203</v>
       </c>
     </row>
     <row r="26">
@@ -767,46 +767,46 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>282.5330436984514</v>
+        <v>283.7170939720066</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>12</v>
+        <v>215</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Freddie Freeman</t>
+          <t>Logan Webb</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>280.8620943545641</v>
+        <v>283.6753314569691</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Logan Webb</t>
+          <t>Pablo López</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>280.7831966741455</v>
+        <v>282.0469095467148</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>222</v>
+        <v>12</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Pablo López</t>
+          <t>Freddie Freeman</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>280.5826926495946</v>
+        <v>282.0461446281193</v>
       </c>
     </row>
     <row r="30">
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>280.5666031941447</v>
+        <v>282.0308200912649</v>
       </c>
     </row>
     <row r="31">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>280.5656756618204</v>
+        <v>281.7497259353757</v>
       </c>
     </row>
     <row r="32">
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>280.1509891926153</v>
+        <v>281.6152060897355</v>
       </c>
     </row>
     <row r="33">
@@ -858,7 +858,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>279.5613085336598</v>
+        <v>281.02552543078</v>
       </c>
     </row>
     <row r="34">
@@ -871,20 +871,20 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>279.3986703904702</v>
+        <v>280.5827206640254</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>230</v>
+        <v>44</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>George Kirby</t>
+          <t>Randy Arozarena</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>278.6737018523174</v>
+        <v>279.7591024557138</v>
       </c>
     </row>
     <row r="36">
@@ -897,72 +897,72 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>278.5982677893901</v>
+        <v>279.3485257436586</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Randy Arozarena</t>
+          <t>George Kirby</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>278.5750521821585</v>
+        <v>278.7100008637343</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>352</v>
+        <v>5</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Liam Hendriks</t>
+          <t>Yordan Alvarez</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>277.1873637564269</v>
+        <v>278.0678528085473</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Yordan Alvarez</t>
+          <t>Trea Turner</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>276.8838025349921</v>
+        <v>277.7650861587606</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Trea Turner</t>
+          <t>Bobby Witt Jr.</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>276.5810358852054</v>
+        <v>277.4461725809465</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>64</v>
+        <v>352</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Bobby Witt Jr.</t>
+          <t>Liam Hendriks</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>276.2621223073912</v>
+        <v>277.1373492685268</v>
       </c>
     </row>
     <row r="42">
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>275.9301878701003</v>
+        <v>276.6804458243689</v>
       </c>
     </row>
     <row r="43">
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>275.2141341932329</v>
+        <v>276.3981844667882</v>
       </c>
     </row>
     <row r="44">
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>274.8628037618884</v>
+        <v>276.0468540354436</v>
       </c>
     </row>
     <row r="45">
@@ -1014,7 +1014,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>274.8147771336492</v>
+        <v>275.5650350879177</v>
       </c>
     </row>
     <row r="46">
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>273.6953136388074</v>
+        <v>274.8793639123627</v>
       </c>
     </row>
     <row r="47">
@@ -1040,7 +1040,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>273.4485939280423</v>
+        <v>274.6326442015975</v>
       </c>
     </row>
     <row r="48">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>273.0329407658288</v>
+        <v>274.216991039384</v>
       </c>
     </row>
     <row r="49">
@@ -1066,59 +1066,59 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>272.9357320344031</v>
+        <v>274.1197823079583</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>245</v>
+        <v>26</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Carlos Rodón</t>
+          <t>Bo Bichette</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>272.8612737395226</v>
+        <v>273.9514997561861</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Bo Bichette</t>
+          <t>Vladimir Guerrero Jr.</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>272.7674494826309</v>
+        <v>273.9123355520679</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Vladimir Guerrero Jr.</t>
+          <t>Paul Goldschmidt</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>272.7282852785127</v>
+        <v>273.7965970786256</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Paul Goldschmidt</t>
+          <t>Mike Trout</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>272.6125468050703</v>
+        <v>273.4229006043494</v>
       </c>
     </row>
     <row r="54">
@@ -1131,1814 +1131,1814 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>272.4353715694216</v>
+        <v>273.1856295236901</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>3</v>
+        <v>221</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Mike Trout</t>
+          <t>Alex Cobb</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>272.2388503307942</v>
+        <v>272.8808985826263</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>242</v>
+        <v>32</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Luis Severino</t>
+          <t>Pete Alonso</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>272.1345465318601</v>
+        <v>272.816844955364</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Alex Cobb</t>
+          <t>Zach Eflin</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>272.1306406283578</v>
+        <v>272.6204722243442</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Zach Eflin</t>
+          <t>Luis Severino</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>271.8702142700757</v>
+        <v>272.170845543277</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Pete Alonso</t>
+          <t>Charlie Morton</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>271.6327946818088</v>
+        <v>272.1704210144527</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>227</v>
+        <v>8</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Charlie Morton</t>
+          <t>Wander Franco</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>271.4201630601842</v>
+        <v>271.6799686275928</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>336</v>
+        <v>49</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Josh Hader</t>
+          <t>Michael Harris II</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>270.5524852514443</v>
+        <v>271.2444886271796</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>8</v>
+        <v>245</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Wander Franco</t>
+          <t>Carlos Rodón</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>270.4959183540376</v>
+        <v>270.7556959223843</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>355</v>
+        <v>232</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Emmanuel Clase</t>
+          <t>Jordan Montgomery</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>270.1835761765607</v>
+        <v>270.6661115260845</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>49</v>
+        <v>244</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Michael Harris II</t>
+          <t>Lucas Giolito</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>270.0604383536244</v>
+        <v>270.5870526080543</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>232</v>
+        <v>55</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Jordan Montgomery</t>
+          <t>Corbin Carroll</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>269.9158535718159</v>
+        <v>270.3393493002245</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>244</v>
+        <v>34</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Lucas Giolito</t>
+          <t>Matt Olson</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>269.8367946537858</v>
+        <v>269.3939087537659</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>251</v>
+        <v>336</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Brandon Woodruff</t>
+          <t>Josh Hader</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>269.6575331289519</v>
+        <v>269.2569839530703</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>55</v>
+        <v>305</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Corbin Carroll</t>
+          <t>Jhoan Duran</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>269.1552990266692</v>
+        <v>269.1240632485489</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>333</v>
+        <v>229</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Félix Bautista</t>
+          <t>Eduardo Rodriguez</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>268.7351897593651</v>
+        <v>268.8984120292205</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Ryan Pressly</t>
+          <t>Emmanuel Clase</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>268.4371655424706</v>
+        <v>268.3898801539972</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>385</v>
+        <v>251</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Raisel Iglesias</t>
+          <t>Brandon Woodruff</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>268.3360660293516</v>
+        <v>268.2659142546654</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Matt Olson</t>
+          <t>Starling Marte</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>268.2098584802106</v>
+        <v>268.0429612401417</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Eduardo Rodriguez</t>
+          <t>Dylan Cease</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>268.1481540749519</v>
+        <v>268.0421615065574</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Ryan Helsley</t>
+          <t>Félix Bautista</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>267.8677717605151</v>
+        <v>267.9378831851807</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>305</v>
+        <v>83</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Jhoan Duran</t>
+          <t>Christian Yelich</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>267.6794935638804</v>
+        <v>267.815750510516</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>350</v>
+        <v>128</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>David Bednar</t>
+          <t>Jorge Mateo</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>267.6346412961041</v>
+        <v>267.5792460629922</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>233</v>
+        <v>385</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Dylan Cease</t>
+          <t>Raisel Iglesias</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>267.2919035522889</v>
+        <v>267.5387594551672</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Starling Marte</t>
+          <t>Byron Buxton</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>266.8589109665865</v>
+        <v>267.2243599706146</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>83</v>
+        <v>363</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Christian Yelich</t>
+          <t>Ryan Pressly</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>266.6317002369607</v>
+        <v>267.1416642440966</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Jorge Mateo</t>
+          <t>Francisco Lindor</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>266.3951957894369</v>
+        <v>267.1356285701481</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Byron Buxton</t>
+          <t>George Springer</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>266.0403096970593</v>
+        <v>267.0745926949531</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>14</v>
+        <v>339</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Francisco Lindor</t>
+          <t>Ryan Helsley</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>265.9515782965929</v>
+        <v>266.8213678242359</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>38</v>
+        <v>350</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>George Springer</t>
+          <t>David Bednar</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>265.8905424213979</v>
+        <v>266.5882373598249</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>256</v>
+        <v>35</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Nestor Cortes</t>
+          <t>Austin Riley</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>265.4579049414941</v>
+        <v>266.5624319591049</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Austin Riley</t>
+          <t>Nico Hoerner</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>265.3783816855497</v>
+        <v>266.3997948543085</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Blake Snell</t>
+          <t>Nestor Cortes</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>265.3624541836509</v>
+        <v>265.494203952911</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Nico Hoerner</t>
+          <t>Luis Robert Jr.</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>265.2157445807533</v>
+        <v>265.4413326877979</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Kodai Senga</t>
+          <t>Blake Snell</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>265.1974252697134</v>
+        <v>265.3987531950677</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Sonny Gray</t>
+          <t>Merrill Kelly</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>265.179245694936</v>
+        <v>265.2406725919245</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Cristian Javier</t>
+          <t>Kodai Senga</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>265.0622914534364</v>
+        <v>265.2337242811303</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Jesús Luzardo</t>
+          <t>Sonny Gray</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>264.4364187206028</v>
+        <v>265.2155447063528</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>33</v>
+        <v>247</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Luis Robert Jr.</t>
+          <t>Cristian Javier</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>264.2572824142427</v>
+        <v>265.0985904648532</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>José Berríos</t>
+          <t>Jesús Luzardo</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>264.0468897647926</v>
+        <v>264.4727177320196</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>253</v>
+        <v>40</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Andrew Heaney</t>
+          <t>Andrés Giménez</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>264.016940715391</v>
+        <v>264.1920334653557</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>237</v>
+        <v>36</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Merrill Kelly</t>
+          <t>Harrison Bader</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>263.7764556948042</v>
+        <v>264.1096989648551</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Freddy Peralta</t>
+          <t>José Berríos</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>263.5860135816079</v>
+        <v>264.0831887762095</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Andrés Giménez</t>
+          <t>Bryan Reynolds</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>263.0079831918005</v>
+        <v>263.871579793798</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Harrison Bader</t>
+          <t>Jose Altuve</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>262.9256486912998</v>
+        <v>263.7683241426252</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Bryan Reynolds</t>
+          <t>Ozzie Albies</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>262.6875295202428</v>
+        <v>263.7256761646153</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Jose Altuve</t>
+          <t>Alex Bregman</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>262.58427386907</v>
+        <v>263.6908135049969</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Ozzie Albies</t>
+          <t>Nolan Arenado</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>262.5416258910601</v>
+        <v>263.5476682325225</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>234</v>
+        <v>28</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Hunter Brown</t>
+          <t>Dansby Swanson</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>262.5131639717371</v>
+        <v>263.1076226723821</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>9</v>
+        <v>243</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Alex Bregman</t>
+          <t>Freddy Peralta</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>262.5067632314416</v>
+        <v>262.908353650173</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Nolan Arenado</t>
+          <t>Kyle Schwarber</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>262.3636179589673</v>
+        <v>262.822010097974</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>249</v>
+        <v>84</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Julio Urías</t>
+          <t>Anthony Volpe</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>262.2022554353683</v>
+        <v>262.6269368304917</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>28</v>
+        <v>397</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Dansby Swanson</t>
+          <t>Andrés Muñoz</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>261.9235723988269</v>
+        <v>262.6268695725255</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>391</v>
+        <v>253</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Camilo Doval</t>
+          <t>Andrew Heaney</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>261.8684454514945</v>
+        <v>262.6253218411045</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>119</v>
+        <v>234</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Kyle Schwarber</t>
+          <t>Hunter Brown</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>261.6379598244187</v>
+        <v>262.5494629831539</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>396</v>
+        <v>76</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Pete Fairbanks</t>
+          <t>Thairo Estrada</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>261.629851145098</v>
+        <v>262.0879830097766</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>365</v>
+        <v>62</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Devin Williams</t>
+          <t>Tommy Edman</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>261.6024140291905</v>
+        <v>261.6484667647625</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>84</v>
+        <v>249</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Anthony Volpe</t>
+          <t>Julio Urías</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>261.4428865569364</v>
+        <v>261.5245955039335</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>261</v>
+        <v>63</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Max Fried</t>
+          <t>Daulton Varsho</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>261.0044660611674</v>
+        <v>261.2194559163711</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>76</v>
+        <v>396</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Thairo Estrada</t>
+          <t>Pete Fairbanks</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>260.9039327362214</v>
+        <v>261.0816419330083</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Jordan Romano</t>
+          <t>Devin Williams</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>260.8713600509946</v>
+        <v>261.0542048171009</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>62</v>
+        <v>239</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Tommy Edman</t>
+          <t>Marcus Stroman</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>260.4644164912073</v>
+        <v>260.6375715527382</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Alex Wood</t>
+          <t>Miles Mikolas</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>260.3581336113886</v>
+        <v>260.4523515167187</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>63</v>
+        <v>260</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Daulton Varsho</t>
+          <t>Chris Bassitt</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>260.0354056428159</v>
+        <v>260.4265583357795</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>239</v>
+        <v>19</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Marcus Stroman</t>
+          <t>Xander Bogaerts</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>259.8873135984697</v>
+        <v>260.0821138949798</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>238</v>
+        <v>391</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Mitch Keller</t>
+          <t>Camilo Doval</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>259.7028553924302</v>
+        <v>260.074749428931</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>259</v>
+        <v>16</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Miles Mikolas</t>
+          <t>Matt Chapman</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>259.7020935624502</v>
+        <v>259.9273175984601</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>260</v>
+        <v>72</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Chris Bassitt</t>
+          <t>Christian Walker</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>259.676300381511</v>
+        <v>259.8936480934765</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Andrés Muñoz</t>
+          <t>Jordan Romano</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>258.940423629004</v>
+        <v>259.8249561147154</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Xander Bogaerts</t>
+          <t>Manny Machado</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>258.8980636214246</v>
+        <v>259.8040781151969</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>16</v>
+        <v>238</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Matt Chapman</t>
+          <t>Mitch Keller</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>258.7432673249048</v>
+        <v>259.739154403847</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Christian Walker</t>
+          <t>Corey Seager</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>258.7095978199212</v>
+        <v>259.7384243229761</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>41</v>
+        <v>261</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Manny Machado</t>
+          <t>Max Fried</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>258.6200278416417</v>
+        <v>259.6128471868809</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Corey Seager</t>
+          <t>Masataka Yoshida</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>258.5543740494209</v>
+        <v>259.2998408770434</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>373</v>
+        <v>98</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Evan Phillips</t>
+          <t>Tim Anderson</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>258.3965416020707</v>
+        <v>258.8539577004232</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>270</v>
+        <v>65</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Grayson Rodriguez</t>
+          <t>Gleyber Torres</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>258.1202039528783</v>
+        <v>258.6751515128257</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>43</v>
+        <v>264</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Masataka Yoshida</t>
+          <t>Alex Wood</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>258.1157906034882</v>
+        <v>258.2525557942504</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Tim Anderson</t>
+          <t>Steven Kwan</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>257.669907426868</v>
+        <v>258.1315944638751</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>252</v>
+        <v>67</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Reid Detmers</t>
+          <t>Seiya Suzuki</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>257.6352900551502</v>
+        <v>257.9709717901101</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>240</v>
+        <v>141</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>James Paxton</t>
+          <t>Jarred Kelenic</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>257.5755494929106</v>
+        <v>257.9399362807029</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>65</v>
+        <v>373</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Gleyber Torres</t>
+          <t>Evan Phillips</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>257.4911012392705</v>
+        <v>257.8483323899811</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Steven Kwan</t>
+          <t>Willy Adames</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>256.9475441903199</v>
+        <v>257.8201655463727</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Seiya Suzuki</t>
+          <t>Jeremy Peña</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>256.7869215165549</v>
+        <v>257.7426272006988</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Jarred Kelenic</t>
+          <t>Teoscar Hernández</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>256.7558860071477</v>
+        <v>257.7132117759083</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Willy Adames</t>
+          <t>J.T. Realmuto</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>256.6361152728174</v>
+        <v>257.4800317885602</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Jeremy Peña</t>
+          <t>Ryan Mountcastle</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>256.5585769271436</v>
+        <v>257.3725316853393</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Teoscar Hernández</t>
+          <t>Jonathan India</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>256.5291615023531</v>
+        <v>256.813394880044</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>J.T. Realmuto</t>
+          <t>Jose Siri</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>256.2959815150049</v>
+        <v>256.7931179124286</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Sean Manaea</t>
+          <t>Grayson Rodriguez</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>256.2500754072952</v>
+        <v>256.7285850785918</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Ryan Mountcastle</t>
+          <t>Ian Happ</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>256.1884814117841</v>
+        <v>256.6896514083599</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>241</v>
+        <v>361</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Brady Singer</t>
+          <t>José Alvarado</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>256.131458015154</v>
+        <v>256.678384652526</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Jonathan India</t>
+          <t>Nathaniel Lowe</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>255.6293446064888</v>
+        <v>256.5892473910487</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>91</v>
+        <v>252</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Jose Siri</t>
+          <t>Reid Detmers</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>255.6090676388734</v>
+        <v>256.2436711808637</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>70</v>
+        <v>240</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Ian Happ</t>
+          <t>James Paxton</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>255.5056011348047</v>
+        <v>256.1839306186241</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Nathaniel Lowe</t>
+          <t>Brady Singer</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>255.4051971174935</v>
+        <v>256.1677570265709</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>275</v>
+        <v>122</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Alek Manoah</t>
+          <t>Jazz Chisholm Jr.</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>255.1648647818997</v>
+        <v>256.1606552002743</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>122</v>
+        <v>372</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Jazz Chisholm Jr.</t>
+          <t>Reynaldo López</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>254.976604926719</v>
+        <v>256.1036383883241</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>JP Sears</t>
+          <t>Alek Manoah</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>254.948590627937</v>
+        <v>255.9151227361682</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>361</v>
+        <v>105</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>José Alvarado</t>
+          <t>Cody Bellinger</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>254.7356202436679</v>
+        <v>255.880378551825</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Cody Bellinger</t>
+          <t>Anthony Rizzo</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>254.6963282782698</v>
+        <v>255.5819911241591</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>267</v>
+        <v>388</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Nick Lodolo</t>
+          <t>Chris Martin</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>254.6611783631252</v>
+        <v>255.4495757828656</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>254</v>
+        <v>58</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Justin Steele</t>
+          <t>Max Muncy</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>254.4460176492078</v>
+        <v>255.4373038049045</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Anthony Rizzo</t>
+          <t>Will Smith</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>254.3979408506039</v>
+        <v>255.4282358485614</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>58</v>
+        <v>351</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Max Muncy</t>
+          <t>Bryan Abreu</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>254.2532535313493</v>
+        <v>255.1563253372244</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Will Smith</t>
+          <t>Amed Rosario</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>254.2441855750062</v>
+        <v>254.8739167182953</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>263</v>
+        <v>370</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Jon Gray</t>
+          <t>Matt Brash</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>254.0891498204352</v>
+        <v>254.7207559368457</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Reynaldo López</t>
+          <t>A.J. Minter</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>253.9117766173713</v>
+        <v>254.6961545967472</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>388</v>
+        <v>117</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Chris Martin</t>
+          <t>Anthony Santander</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>253.7559087361023</v>
+        <v>254.363877778707</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Amed Rosario</t>
+          <t>Brandon Lowe</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>253.6898664447401</v>
+        <v>254.2365831760893</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Bryan Abreu</t>
+          <t>Joe Kelly</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>253.2135609283663</v>
+        <v>254.1783166425616</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>117</v>
+        <v>272</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Anthony Santander</t>
+          <t>Sean Manaea</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>253.1798275051518</v>
+        <v>254.144497590157</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Brandon Lowe</t>
+          <t>Ke'Bryan Hayes</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>253.052532902534</v>
+        <v>254.0807474387971</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Ke'Bryan Hayes</t>
+          <t>Miguel Vargas</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>252.8966971652418</v>
+        <v>254.0798826614203</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>79</v>
+        <v>378</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Miguel Vargas</t>
+          <t>Adbert Alzolay</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>252.8958323878651</v>
+        <v>254.0292019057034</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>370</v>
+        <v>42</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Matt Brash</t>
+          <t>Yandy Díaz</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>252.7779915279877</v>
+        <v>253.9428787465166</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Yandy Díaz</t>
+          <t>Rowdy Tellez</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>252.7588284729613</v>
+        <v>253.802792555632</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>366</v>
+        <v>254</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>A.J. Minter</t>
+          <t>Justin Steele</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>252.7533901878892</v>
+        <v>253.768357717773</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>123</v>
+        <v>268</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Rowdy Tellez</t>
+          <t>JP Sears</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>252.6187422820768</v>
+        <v>253.5569717536505</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>378</v>
+        <v>263</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Adbert Alzolay</t>
+          <t>Jon Gray</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>252.5846322210349</v>
+        <v>253.4114898890004</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>395</v>
+        <v>73</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Alexis Díaz</t>
+          <t>Ketel Marte</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>252.3208319810838</v>
+        <v>253.3114911929183</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>360</v>
+        <v>66</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Joe Kelly</t>
+          <t>Gunnar Henderson</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>252.2355522337035</v>
+        <v>253.2272946416919</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Ketel Marte</t>
+          <t>Leody Taveras</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>252.127440919363</v>
+        <v>253.1991561251068</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>282</v>
+        <v>356</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Bailey Ober</t>
+          <t>Aroldis Chapman</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>252.0779912120491</v>
+        <v>253.1072733271007</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Gunnar Henderson</t>
+          <t>Javier Báez</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>252.0432443681366</v>
+        <v>252.8651958228079</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Leody Taveras</t>
+          <t>Vinnie Pasquantino</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>252.0151058515516</v>
+        <v>252.7167239519904</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Javier Báez</t>
+          <t>Matt McLain</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>251.6811455492527</v>
+        <v>252.5447321219634</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Vinnie Pasquantino</t>
+          <t>Hunter Renfroe</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>251.5326736784352</v>
+        <v>252.4120873128032</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>280</v>
+        <v>25</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Kyle Gibson</t>
+          <t>Brandon Nimmo</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>251.5227870080365</v>
+        <v>252.3110163886141</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>356</v>
+        <v>111</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Aroldis Chapman</t>
+          <t>Nolan Gorman</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>251.4136062803374</v>
+        <v>252.2245189374611</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Matt McLain</t>
+          <t>Carlos Correa</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>251.3606818484082</v>
+        <v>252.0111982253488</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Hunter Renfroe</t>
+          <t>Andrew Benintendi</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>251.228037039248</v>
+        <v>251.8703567205972</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>25</v>
+        <v>267</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Brandon Nimmo</t>
+          <t>Nick Lodolo</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>251.1269661150589</v>
+        <v>251.8416416031353</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Nolan Gorman</t>
+          <t>Lars Nootbaar</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>251.0404686639058</v>
+        <v>251.805288146952</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Carlos Correa</t>
+          <t>James Outman</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>250.8271479517935</v>
+        <v>251.5946593185696</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Edward Cabrera</t>
+          <t>Kyle Gibson</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>250.7606265931624</v>
+        <v>251.5590860194533</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>108</v>
+        <v>395</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Andrew Benintendi</t>
+          <t>Alexis Díaz</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>250.6863064470419</v>
+        <v>251.5235254068994</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Lars Nootbaar</t>
+          <t>Salvador Perez</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>250.6212378733967</v>
+        <v>251.3539968407458</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>James Outman</t>
+          <t>Lourdes Gurriel Jr.</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>250.4106090450143</v>
+        <v>251.2459222588627</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Ranger Suárez</t>
+          <t>Adley Rutschman</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>250.1747387137736</v>
+        <v>251.1120948549001</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>107</v>
+        <v>184</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Salvador Perez</t>
+          <t>Josh Naylor</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>250.1699465671905</v>
+        <v>251.0634542064014</v>
       </c>
     </row>
     <row r="194">
@@ -2951,228 +2951,228 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>250.1351992141</v>
+        <v>250.8324768124842</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Lourdes Gurriel Jr.</t>
+          <t>Myles Straw</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>250.0618719853074</v>
+        <v>250.7628497174495</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Adley Rutschman</t>
+          <t>Kris Bryant</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>249.9280445813449</v>
+        <v>250.7532897735213</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Josh Naylor</t>
+          <t>José Abreu</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>249.8794039328461</v>
+        <v>250.7202852732947</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Myles Straw</t>
+          <t>Alex Verdugo</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>249.5787994438942</v>
+        <v>250.665203543229</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>148</v>
+        <v>192</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Kris Bryant</t>
+          <t>TJ Friedl</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>249.5692394999661</v>
+        <v>250.5761602095865</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>José Abreu</t>
+          <t>Ryan McMahon</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>249.5362349997394</v>
+        <v>250.2529976586397</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>284</v>
+        <v>389</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Aaron Civale</t>
+          <t>Craig Kimbrel</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>249.4939187900727</v>
+        <v>250.060404539647</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>78</v>
+        <v>282</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Alex Verdugo</t>
+          <t>Bailey Ober</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>249.4811532696737</v>
+        <v>249.9724133949108</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>192</v>
+        <v>27</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>TJ Friedl</t>
+          <t>Sean Murphy</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>249.3921099360313</v>
+        <v>249.8236114524084</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>389</v>
+        <v>255</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Craig Kimbrel</t>
+          <t>Ranger Suárez</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>249.3631269412628</v>
+        <v>249.4970787823387</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>278</v>
+        <v>74</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Jameson Taillon</t>
+          <t>Ty France</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>249.2213330474372</v>
+        <v>249.3859059655785</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>MacKenzie Gore</t>
+          <t>Edward Cabrera</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>249.1839491327184</v>
+        <v>249.3690077188759</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Ryan McMahon</t>
+          <t>Christopher Morel</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>249.0689473850844</v>
+        <v>249.313479197662</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>287</v>
+        <v>164</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Triston McKenzie</t>
+          <t>Jorge Soler</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>249.0619589085575</v>
+        <v>249.2236834390253</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>262</v>
+        <v>196</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Patrick Sandoval</t>
+          <t>Ezequiel Tovar</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>248.8238217800171</v>
+        <v>249.2044179439245</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Sean Murphy</t>
+          <t>Andrew Vaughn</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>248.6395611788532</v>
+        <v>249.1570148137006</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>344</v>
+        <v>75</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Mason Miller</t>
+          <t>Riley Greene</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>248.6100903051245</v>
+        <v>248.6410622528599</v>
       </c>
     </row>
     <row r="212">
@@ -3185,1645 +3185,1645 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>248.399540223895</v>
+        <v>248.4358392353119</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>296</v>
+        <v>87</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Louie Varland</t>
+          <t>Jake Cronenworth</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>248.3070468139796</v>
+        <v>248.3538839883379</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Ty France</t>
+          <t>Josh Rojas</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>248.2018556920233</v>
+        <v>248.329984444106</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>314</v>
+        <v>161</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Anthony DeSclafani</t>
+          <t>Justin Turner</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>248.1917876311409</v>
+        <v>248.1561705265474</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>171</v>
+        <v>262</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Christopher Morel</t>
+          <t>Patrick Sandoval</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>248.1294289241067</v>
+        <v>248.1461618485822</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Jorge Soler</t>
+          <t>Mitch Haniger</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>248.0396331654701</v>
+        <v>248.0874416035128</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Ezequiel Tovar</t>
+          <t>Jameson Taillon</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>248.0203676703692</v>
+        <v>247.8297141731507</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>127</v>
+        <v>257</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Andrew Vaughn</t>
+          <t>MacKenzie Gore</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>247.9729645401454</v>
+        <v>247.7923302584319</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>297</v>
+        <v>113</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Steven Matz</t>
+          <t>Josh Jung</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>247.9331934877848</v>
+        <v>247.4516679730704</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>292</v>
+        <v>39</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Yusei Kikuchi</t>
+          <t>Luis Arraez</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>247.8991964662395</v>
+        <v>247.4165744667167</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Kyle Bradish</t>
+          <t>Aaron Civale</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>247.5535759300865</v>
+        <v>247.3883409729345</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Riley Greene</t>
+          <t>Triston Casas</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>247.4570119793047</v>
+        <v>247.1400778342505</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>281</v>
+        <v>50</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Drew Smyly</t>
+          <t>Jeff McNeil</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>247.4238345545631</v>
+        <v>247.1255685164859</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Jake Cronenworth</t>
+          <t>Austin Hays</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>247.1698337147827</v>
+        <v>247.06002959378</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Josh Rojas</t>
+          <t>Giancarlo Stanton</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>247.1459341705508</v>
+        <v>247.0184743129588</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>310</v>
+        <v>377</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Matt Strahm</t>
+          <t>Aaron Bummer</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>246.9916493355334</v>
+        <v>247.0149907050408</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>161</v>
+        <v>287</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Justin Turner</t>
+          <t>Triston McKenzie</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>246.9721202529922</v>
+        <v>246.9563810914193</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>147</v>
+        <v>314</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Mitch Haniger</t>
+          <t>Anthony DeSclafani</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>246.9033913299576</v>
+        <v>246.8001687568544</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>299</v>
+        <v>131</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Eury Pérez</t>
+          <t>Michael Conforto</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>246.7702194898282</v>
+        <v>246.5393978049284</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>301</v>
+        <v>172</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Bryce Miller</t>
+          <t>Seth Brown</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>246.4972607302481</v>
+        <v>246.5331628034158</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>286</v>
+        <v>143</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Michael Wacha</t>
+          <t>Tyler O'Neill</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>246.4267000977457</v>
+        <v>246.4214747829988</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Matthew Boyd</t>
+          <t>Kyle Bradish</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>246.3511982338674</v>
+        <v>246.1619570557999</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>295</v>
+        <v>186</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Taj Bradley</t>
+          <t>Josh Bell</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>246.3297738309759</v>
+        <v>245.6348398744041</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Tanner Houck</t>
+          <t>Louie Varland</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>246.2803405798837</v>
+        <v>245.4875100539897</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Josh Jung</t>
+          <t>Jorge Polanco</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>246.2676176995152</v>
+        <v>245.4562698738382</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>39</v>
+        <v>190</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Luis Arraez</t>
+          <t>Brandon Marsh</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>246.2325241931615</v>
+        <v>245.3809735272428</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>283</v>
+        <v>125</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Tony Gonsolin</t>
+          <t>Taylor Walls</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>246.0576016605042</v>
+        <v>245.3567534337802</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Domingo Germán</t>
+          <t>Drew Smyly</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>246.0499304351114</v>
+        <v>245.3182567374249</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>185</v>
+        <v>97</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Triston Casas</t>
+          <t>Trent Grisham</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>245.9560275606953</v>
+        <v>245.2905542583986</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>50</v>
+        <v>133</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Jeff McNeil</t>
+          <t>Ramón Laureano</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>245.9415182429306</v>
+        <v>245.2880387191699</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>116</v>
+        <v>189</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Austin Hays</t>
+          <t>Brent Rooker</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>245.8759793202248</v>
+        <v>245.227710939027</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Giancarlo Stanton</t>
+          <t>Manuel Margot</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>245.8344240394036</v>
+        <v>245.1178113889509</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Jack Flaherty</t>
+          <t>Steven Matz</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>245.7202946693101</v>
+        <v>245.1136567277949</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Tarik Skubal</t>
+          <t>Yusei Kikuchi</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>245.603287579927</v>
+        <v>245.0796597062496</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>302</v>
+        <v>69</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>David Peterson</t>
+          <t>Brett Baty</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>245.4314457589807</v>
+        <v>245.0451580695781</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Bryce Elder</t>
+          <t>Michael Wacha</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>245.3663990684353</v>
+        <v>245.0350812234592</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>131</v>
+        <v>294</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Michael Conforto</t>
+          <t>Matthew Boyd</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>245.3553475313732</v>
+        <v>244.9595793595809</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Seth Brown</t>
+          <t>Mike Yastrzemski</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>245.3491125298606</v>
+        <v>244.8112428884967</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>143</v>
+        <v>68</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Tyler O'Neill</t>
+          <t>Anthony Rendon</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>245.2374245094435</v>
+        <v>244.7259567698142</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>321</v>
+        <v>269</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Dean Kremer</t>
+          <t>Bryce Elder</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>244.8195599857617</v>
+        <v>244.6887391370005</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Garrett Whitlock</t>
+          <t>Tony Gonsolin</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>244.8036857627859</v>
+        <v>244.6659827862177</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>377</v>
+        <v>299</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Aaron Bummer</t>
+          <t>Eury Pérez</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>244.5740315719933</v>
+        <v>244.66464167269</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>186</v>
+        <v>112</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Josh Bell</t>
+          <t>Joey Gallo</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>244.4507896008489</v>
+        <v>244.4846004328224</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>94</v>
+        <v>301</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Jorge Polanco</t>
+          <t>Bryce Miller</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>244.2722196002829</v>
+        <v>244.3916829131099</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>190</v>
+        <v>304</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Brandon Marsh</t>
+          <t>Jack Flaherty</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>244.1969232536876</v>
+        <v>244.3286757950236</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>125</v>
+        <v>295</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Taylor Walls</t>
+          <t>Taj Bradley</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>244.172703160225</v>
+        <v>244.2241960138377</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Patrick Corbin</t>
+          <t>Tanner Houck</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>244.160076853212</v>
+        <v>244.1747627627454</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>279</v>
+        <v>80</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Zack Greinke</t>
+          <t>Yoán Moncada</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>244.1322341081642</v>
+        <v>244.0824587461758</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>97</v>
+        <v>290</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Trent Grisham</t>
+          <t>Domingo Germán</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>244.1065039848434</v>
+        <v>243.9443526179732</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>133</v>
+        <v>194</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Ramón Laureano</t>
+          <t>Jon Berti</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>244.1039884456147</v>
+        <v>243.8994825584279</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>265</v>
+        <v>173</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Brayan Bello</t>
+          <t>Joc Pederson</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>244.1006266758867</v>
+        <v>243.8828863589371</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Drew Rasmussen</t>
+          <t>Mason Miller</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>244.0731956816917</v>
+        <v>243.6486767165796</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>327</v>
+        <v>136</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Tyler Wells</t>
+          <t>Taylor Ward</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>244.0717764438133</v>
+        <v>243.5121332200269</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>189</v>
+        <v>273</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Brent Rooker</t>
+          <t>Patrick Corbin</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>244.0436606654717</v>
+        <v>243.4824169217772</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>157</v>
+        <v>321</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Manuel Margot</t>
+          <t>Dean Kremer</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>243.9337611153957</v>
+        <v>243.4279411114751</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>325</v>
+        <v>104</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Brandon Pfaadt</t>
+          <t>Eugenio Suárez</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>243.8906844354082</v>
+        <v>243.3554871096567</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>69</v>
+        <v>146</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Brett Baty</t>
+          <t>Zach Neto</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>243.8611077960229</v>
+        <v>243.0876781724683</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>101</v>
+        <v>159</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Mike Yastrzemski</t>
+          <t>Eloy Jiménez</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>243.6271926149414</v>
+        <v>242.873943384165</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Taijuan Walker</t>
+          <t>Zack Greinke</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>243.6255532058257</v>
+        <v>242.7406152338777</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Anthony Rendon</t>
+          <t>Orlando Arcia</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>243.5419064962589</v>
+        <v>242.7264800898569</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Joey Gallo</t>
+          <t>Ha-Seong Kim</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>243.3005501592671</v>
+        <v>242.6522142749259</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>315</v>
+        <v>156</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Logan Allen</t>
+          <t>Bryson Stott</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>243.2573852818586</v>
+        <v>242.6219289324464</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>317</v>
+        <v>90</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Carlos Carrasco</t>
+          <t>DJ LeMahieu</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>243.0596550235279</v>
+        <v>242.5728588870218</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Yoán Moncada</t>
+          <t>Josh Lowe</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>242.8984084726206</v>
+        <v>242.2450581548175</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>194</v>
+        <v>274</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Jon Berti</t>
+          <t>Taijuan Walker</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>242.7154322848727</v>
+        <v>242.2339343315392</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>173</v>
+        <v>307</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Joc Pederson</t>
+          <t>Tarik Skubal</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>242.6988360853819</v>
+        <v>242.0697918770854</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>337</v>
+        <v>135</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Kenta Maeda</t>
+          <t>J.D. Davis</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>242.3719237646971</v>
+        <v>242.0672039682628</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Taylor Ward</t>
+          <t>Willson Contreras</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>242.3280829464717</v>
+        <v>242.0268507841923</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>349</v>
+        <v>265</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Marco Gonzales</t>
+          <t>Brayan Bello</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>242.2304068439096</v>
+        <v>241.9950488587485</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>104</v>
+        <v>276</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Eugenio Suárez</t>
+          <t>Garrett Whitlock</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>242.1714368361014</v>
+        <v>241.984149002796</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Lance McCullers Jr.</t>
+          <t>David Peterson</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>242.1315583765122</v>
+        <v>241.8979500561391</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Zach Neto</t>
+          <t>Jeimer Candelario</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>241.903627898913</v>
+        <v>241.5894530522494</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>159</v>
+        <v>349</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Eloy Jiménez</t>
+          <t>Marco Gonzales</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>241.6898931106098</v>
+        <v>241.5527469124748</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Orlando Arcia</t>
+          <t>Jean Segura</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>241.5424298163017</v>
+        <v>241.3669706690784</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>92</v>
+        <v>310</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Ha-Seong Kim</t>
+          <t>Matt Strahm</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>241.4681640013706</v>
+        <v>241.3162768041368</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>156</v>
+        <v>327</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Bryson Stott</t>
+          <t>Tyler Wells</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>241.4378786588912</v>
+        <v>241.2522396838234</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>90</v>
+        <v>325</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>DJ LeMahieu</t>
+          <t>Brandon Pfaadt</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>241.3888086134666</v>
+        <v>241.0711476754183</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>379</v>
+        <v>317</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>DL Hall</t>
+          <t>Carlos Carrasco</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>241.3408905827725</v>
+        <v>240.9540772063897</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>150</v>
+        <v>61</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Josh Lowe</t>
+          <t>J.P. Crawford</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>241.0610078812622</v>
+        <v>240.7948625969105</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>J.D. Davis</t>
+          <t>Chris Taylor</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>240.8831536947076</v>
+        <v>240.786689506892</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>102</v>
+        <v>315</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Willson Contreras</t>
+          <t>Logan Allen</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>240.8428005106371</v>
+        <v>240.4378485218687</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Trevor Rogers</t>
+          <t>Lance McCullers Jr.</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>240.4633604376838</v>
+        <v>240.025980559374</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>126</v>
+        <v>318</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Jeimer Candelario</t>
+          <t>Drew Rasmussen</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>240.4054027786941</v>
+        <v>239.8257410359984</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>326</v>
+        <v>195</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Adam Wainwright</t>
+          <t>Jesse Winker</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>240.2811952615925</v>
+        <v>239.7557540758554</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Jean Segura</t>
+          <t>Mitch Garver</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>240.1829203955231</v>
+        <v>239.7184456603879</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>322</v>
+        <v>109</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Tyler Anderson</t>
+          <t>Danny Jansen</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>239.8467581337607</v>
+        <v>239.7173932800271</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>258</v>
+        <v>193</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Graham Ashcraft</t>
+          <t>Patrick Wisdom</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>239.8290573555381</v>
+        <v>239.677905851436</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
-        <v>61</v>
+        <v>326</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>J.P. Crawford</t>
+          <t>Adam Wainwright</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>239.6108123233553</v>
+        <v>239.6035353301577</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
-        <v>166</v>
+        <v>71</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Chris Taylor</t>
+          <t>Cal Raleigh</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>239.6026392333368</v>
+        <v>239.3341595024428</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Luke Weaver</t>
+          <t>Tyler Anderson</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>239.4789413856148</v>
+        <v>239.1690982023259</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
-        <v>308</v>
+        <v>258</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Michael Lorenzen</t>
+          <t>Graham Ashcraft</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>239.467759957811</v>
+        <v>239.1513974241033</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
-        <v>329</v>
+        <v>180</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Cal Quantrill</t>
+          <t>Mark Canha</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>239.2464355049623</v>
+        <v>239.0389583744514</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Michael Kopech</t>
+          <t>Kenta Maeda</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>239.2326388931235</v>
+        <v>238.8384280618556</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
-        <v>320</v>
+        <v>121</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>José Quintana</t>
+          <t>Max Kepler</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>239.094349009639</v>
+        <v>238.6754738485604</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Seth Lugo</t>
+          <t>Cal Quantrill</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>239.0542411006277</v>
+        <v>238.5687755735275</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
-        <v>338</v>
+        <v>197</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Clarke Schmidt</t>
+          <t>Chas McCormick</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>238.9106489625077</v>
+        <v>238.485930657886</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
-        <v>311</v>
+        <v>81</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Griffin Canning</t>
+          <t>Isaac Paredes</t>
         </is>
       </c>
       <c r="C308" t="n">
-        <v>238.886712504134</v>
+        <v>238.1053946339796</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Braxton Garrett</t>
+          <t>Michael Lorenzen</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>238.8665188054921</v>
+        <v>238.0761410835245</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
-        <v>195</v>
+        <v>139</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Jesse Winker</t>
+          <t>Enrique Hernández</t>
         </is>
       </c>
       <c r="C310" t="n">
-        <v>238.5717038023001</v>
+        <v>237.8740814682489</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Mitch Garver</t>
+          <t>Adam Frazier</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>238.5343953868326</v>
+        <v>237.3892320514358</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
-        <v>109</v>
+        <v>293</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Danny Jansen</t>
+          <t>Luke Weaver</t>
         </is>
       </c>
       <c r="C312" t="n">
-        <v>238.5333430064718</v>
+        <v>237.3733635684766</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
-        <v>193</v>
+        <v>110</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Patrick Wisdom</t>
+          <t>William Contreras</t>
         </is>
       </c>
       <c r="C313" t="n">
-        <v>238.4938555778807</v>
+        <v>237.3335953295567</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
-        <v>289</v>
+        <v>170</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Rich Hill</t>
+          <t>Jack Suwinski</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>238.3874869636352</v>
+        <v>237.1101735881129</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Cal Raleigh</t>
+          <t>Kevin Kiermaier</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>238.1501092288875</v>
+        <v>236.9809957501766</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
-        <v>332</v>
+        <v>57</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Tanner Bibee</t>
+          <t>Alejandro Kirk</t>
         </is>
       </c>
       <c r="C316" t="n">
-        <v>237.9339225937831</v>
+        <v>236.969942979306</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
-        <v>180</v>
+        <v>316</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Mark Canha</t>
+          <t>Trevor Rogers</t>
         </is>
       </c>
       <c r="C317" t="n">
-        <v>237.8549081008962</v>
+        <v>236.9298647348423</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
-        <v>343</v>
+        <v>152</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>José Urquidy</t>
+          <t>Travis d'Arnaud</t>
         </is>
       </c>
       <c r="C318" t="n">
-        <v>237.5941769681924</v>
+        <v>236.8290127438242</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
-        <v>121</v>
+        <v>300</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Max Kepler</t>
+          <t>Michael Kopech</t>
         </is>
       </c>
       <c r="C319" t="n">
-        <v>237.4914235750052</v>
+        <v>236.4131021331336</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Chas McCormick</t>
+          <t>Seth Lugo</t>
         </is>
       </c>
       <c r="C320" t="n">
-        <v>237.3018803843308</v>
+        <v>236.2347043406378</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
-        <v>346</v>
+        <v>115</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Ken Waldichuk</t>
+          <t>Paul DeJong</t>
         </is>
       </c>
       <c r="C321" t="n">
-        <v>237.1231393488382</v>
+        <v>236.1067253140598</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
-        <v>319</v>
+        <v>158</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Mike Clevinger</t>
+          <t>Brandon Crawford</t>
         </is>
       </c>
       <c r="C322" t="n">
-        <v>236.9224444677698</v>
+        <v>235.7551631703532</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
-        <v>81</v>
+        <v>379</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Isaac Paredes</t>
+          <t>DL Hall</t>
         </is>
       </c>
       <c r="C323" t="n">
-        <v>236.9213443604243</v>
+        <v>235.6655180513759</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
-        <v>139</v>
+        <v>289</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Enrique Hernández</t>
+          <t>Rich Hill</t>
         </is>
       </c>
       <c r="C324" t="n">
-        <v>236.6900311946937</v>
+        <v>235.5679502036454</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Roansy Contreras</t>
+          <t>José Quintana</t>
         </is>
       </c>
       <c r="C325" t="n">
-        <v>236.5994171475754</v>
+        <v>235.5608533067974</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
-        <v>330</v>
+        <v>179</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Dustin May</t>
+          <t>Joey Wendle</t>
         </is>
       </c>
       <c r="C326" t="n">
-        <v>236.5197644402532</v>
+        <v>235.500942090892</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
-        <v>369</v>
+        <v>311</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Tylor Megill</t>
+          <t>Griffin Canning</t>
         </is>
       </c>
       <c r="C327" t="n">
-        <v>236.393491361557</v>
+        <v>235.3532168012924</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
-        <v>387</v>
+        <v>178</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Ross Stripling</t>
+          <t>Connor Joe</t>
         </is>
       </c>
       <c r="C328" t="n">
-        <v>236.361965930231</v>
+        <v>235.2950235271899</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Josiah Gray</t>
+          <t>Roansy Contreras</t>
         </is>
       </c>
       <c r="C329" t="n">
-        <v>236.2483312094345</v>
+        <v>235.2077982732889</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
-        <v>167</v>
+        <v>346</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Adam Frazier</t>
+          <t>Ken Waldichuk</t>
         </is>
       </c>
       <c r="C330" t="n">
-        <v>236.2051817778805</v>
+        <v>235.0175615317</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
-        <v>110</v>
+        <v>199</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>William Contreras</t>
+          <t>Brian Anderson</t>
         </is>
       </c>
       <c r="C331" t="n">
-        <v>236.1495450560014</v>
+        <v>234.9950538196456</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
-        <v>398</v>
+        <v>324</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Cole Irvin</t>
+          <t>Josiah Gray</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>236.0493936481046</v>
+        <v>234.8567123351479</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Bailey Falter</t>
+          <t>José Urquidy</t>
         </is>
       </c>
       <c r="C333" t="n">
-        <v>236.0200518611967</v>
+        <v>234.7746402082025</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Jack Suwinski</t>
+          <t>Santiago Espinal</t>
         </is>
       </c>
       <c r="C334" t="n">
-        <v>235.9261233145577</v>
+        <v>234.7299102704096</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
-        <v>130</v>
+        <v>338</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Kevin Kiermaier</t>
+          <t>Clarke Schmidt</t>
         </is>
       </c>
       <c r="C335" t="n">
-        <v>235.7969454766214</v>
+        <v>234.6631943168144</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
-        <v>57</v>
+        <v>331</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Alejandro Kirk</t>
+          <t>Braxton Garrett</t>
         </is>
       </c>
       <c r="C336" t="n">
-        <v>235.7858927057507</v>
+        <v>234.6190641597989</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
-        <v>152</v>
+        <v>332</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Travis d'Arnaud</t>
+          <t>Tanner Bibee</t>
         </is>
       </c>
       <c r="C337" t="n">
-        <v>235.6449624702689</v>
+        <v>234.4004268909415</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Matthew Liberatore</t>
+          <t>Mike Clevinger</t>
         </is>
       </c>
       <c r="C338" t="n">
-        <v>235.5399005028906</v>
+        <v>234.1029077077799</v>
       </c>
     </row>
     <row r="339">
@@ -4836,644 +4836,644 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>235.3371610060527</v>
+        <v>233.9455421317661</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
-        <v>335</v>
+        <v>145</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Kyle Wright</t>
+          <t>Keibert Ruiz</t>
         </is>
       </c>
       <c r="C340" t="n">
-        <v>235.1838957696133</v>
+        <v>233.4113997792522</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
-        <v>115</v>
+        <v>169</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Paul DeJong</t>
+          <t>Dylan Carlson</t>
         </is>
       </c>
       <c r="C341" t="n">
-        <v>234.9226750405045</v>
+        <v>233.3293833629123</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Brandon Crawford</t>
+          <t>Kolten Wong</t>
         </is>
       </c>
       <c r="C342" t="n">
-        <v>234.571112896798</v>
+        <v>232.9264538036815</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
-        <v>179</v>
+        <v>51</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Joey Wendle</t>
+          <t>Jonah Heim</t>
         </is>
       </c>
       <c r="C343" t="n">
-        <v>234.3168918173367</v>
+        <v>232.6058752652877</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
-        <v>340</v>
+        <v>398</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Nick Martinez</t>
+          <t>Cole Irvin</t>
         </is>
       </c>
       <c r="C344" t="n">
-        <v>234.3013117197186</v>
+        <v>232.515897945263</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Daniel Lynch</t>
+          <t>Dustin May</t>
         </is>
       </c>
       <c r="C345" t="n">
-        <v>234.1262101233546</v>
+        <v>232.2723097945599</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Connor Joe</t>
+          <t>Miguel Rojas</t>
         </is>
       </c>
       <c r="C346" t="n">
-        <v>234.1109732536346</v>
+        <v>232.1035917370978</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
-        <v>199</v>
+        <v>323</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Brian Anderson</t>
+          <t>Matthew Liberatore</t>
         </is>
       </c>
       <c r="C347" t="n">
-        <v>233.8110035460904</v>
+        <v>232.006404800049</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
-        <v>306</v>
+        <v>335</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Johan Oviedo</t>
+          <t>Kyle Wright</t>
         </is>
       </c>
       <c r="C348" t="n">
-        <v>233.6738941168804</v>
+        <v>231.6504000667718</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
-        <v>163</v>
+        <v>306</v>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Santiago Espinal</t>
+          <t>Johan Oviedo</t>
         </is>
       </c>
       <c r="C349" t="n">
-        <v>233.5458599968544</v>
+        <v>231.5683162997422</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>J.P. France</t>
+          <t>Tylor Megill</t>
         </is>
       </c>
       <c r="C350" t="n">
-        <v>232.8403538681999</v>
+        <v>231.432077773012</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Andrew Abbott</t>
+          <t>Ross Stripling</t>
         </is>
       </c>
       <c r="C351" t="n">
-        <v>232.4244255692327</v>
+        <v>231.4005523416861</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
-        <v>368</v>
+        <v>309</v>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Drew Rucinski</t>
+          <t>Daniel Lynch</t>
         </is>
       </c>
       <c r="C352" t="n">
-        <v>232.4070283173758</v>
+        <v>231.3066733633647</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
-        <v>145</v>
+        <v>367</v>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Keibert Ruiz</t>
+          <t>Bailey Falter</t>
         </is>
       </c>
       <c r="C353" t="n">
-        <v>232.227349505697</v>
+        <v>231.0586382726518</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
-        <v>334</v>
+        <v>151</v>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Noah Syndergaard</t>
+          <t>Luis Urías</t>
         </is>
       </c>
       <c r="C354" t="n">
-        <v>232.1959958394352</v>
+        <v>231.0130007509227</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Dylan Carlson</t>
+          <t>Brendan Donovan</t>
         </is>
       </c>
       <c r="C355" t="n">
-        <v>232.1453330893571</v>
+        <v>230.7925688434764</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Kolten Wong</t>
+          <t>Royce Lewis</t>
         </is>
       </c>
       <c r="C356" t="n">
-        <v>231.7424035301263</v>
+        <v>230.6255626717969</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
-        <v>386</v>
+        <v>118</v>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Colin Rea</t>
+          <t>Gabriel Moreno</t>
         </is>
       </c>
       <c r="C357" t="n">
-        <v>231.5977683549828</v>
+        <v>230.1791701534949</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Luis L. Ortiz</t>
+          <t>Nick Martinez</t>
         </is>
       </c>
       <c r="C358" t="n">
-        <v>231.5373859783369</v>
+        <v>230.0538570740253</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
-        <v>51</v>
+        <v>149</v>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Jonah Heim</t>
+          <t>Ramón Urías</t>
         </is>
       </c>
       <c r="C359" t="n">
-        <v>231.4218249917324</v>
+        <v>229.8049461942932</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
-        <v>348</v>
+        <v>187</v>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Michael Soroka</t>
+          <t>Tony Kemp</t>
         </is>
       </c>
       <c r="C360" t="n">
-        <v>231.4021258930908</v>
+        <v>229.5989265053136</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Spencer Turnbull</t>
+          <t>Drew Rucinski</t>
         </is>
       </c>
       <c r="C361" t="n">
-        <v>231.3625395745499</v>
+        <v>229.5874915573859</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Ryne Nelson</t>
+          <t>Noah Syndergaard</t>
         </is>
       </c>
       <c r="C362" t="n">
-        <v>231.3523069106829</v>
+        <v>229.3764590794453</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
-        <v>357</v>
+        <v>393</v>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Nick Pivetta</t>
+          <t>J.P. France</t>
         </is>
       </c>
       <c r="C363" t="n">
-        <v>231.1700130880795</v>
+        <v>229.3068581653583</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
-        <v>181</v>
+        <v>353</v>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Miguel Rojas</t>
+          <t>Jordan Lyles</t>
         </is>
       </c>
       <c r="C364" t="n">
-        <v>230.9195414635425</v>
+        <v>228.9796652140158</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
-        <v>375</v>
+        <v>312</v>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Bobby Miller</t>
+          <t>Luis L. Ortiz</t>
         </is>
       </c>
       <c r="C365" t="n">
-        <v>230.8430063137963</v>
+        <v>228.717849218347</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Kyle Hendricks</t>
+          <t>Ryne Nelson</t>
         </is>
       </c>
       <c r="C366" t="n">
-        <v>230.716186177743</v>
+        <v>228.532770150693</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Corey Kluber</t>
+          <t>Andrew Abbott</t>
         </is>
       </c>
       <c r="C367" t="n">
-        <v>230.6962804155567</v>
+        <v>228.1769709235394</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
-        <v>353</v>
+        <v>177</v>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Jordan Lyles</t>
+          <t>Jake Meyers</t>
         </is>
       </c>
       <c r="C368" t="n">
-        <v>230.3712840883023</v>
+        <v>228.0030245121967</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
-        <v>151</v>
+        <v>358</v>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Luis Urías</t>
+          <t>Kyle Hendricks</t>
         </is>
       </c>
       <c r="C369" t="n">
-        <v>229.8289504773675</v>
+        <v>227.8966494177531</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
-        <v>382</v>
+        <v>328</v>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Dane Dunning</t>
+          <t>Corey Kluber</t>
         </is>
       </c>
       <c r="C370" t="n">
-        <v>229.7187529623257</v>
+        <v>227.8767436555668</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
-        <v>176</v>
+        <v>341</v>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Brendan Donovan</t>
+          <t>Spencer Turnbull</t>
         </is>
       </c>
       <c r="C371" t="n">
-        <v>229.6085185699212</v>
+        <v>227.8290438717083</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
-        <v>154</v>
+        <v>386</v>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Royce Lewis</t>
+          <t>Colin Rea</t>
         </is>
       </c>
       <c r="C372" t="n">
-        <v>229.4415123982416</v>
+        <v>227.3503137092896</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
-        <v>118</v>
+        <v>348</v>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Gabriel Moreno</t>
+          <t>Michael Soroka</t>
         </is>
       </c>
       <c r="C373" t="n">
-        <v>228.9951198799396</v>
+        <v>227.1546712473976</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Ramón Urías</t>
+          <t>Yasmani Grandal</t>
         </is>
       </c>
       <c r="C374" t="n">
-        <v>228.620895920738</v>
+        <v>226.7002500096733</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
-        <v>187</v>
+        <v>375</v>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Tony Kemp</t>
+          <t>Bobby Miller</t>
         </is>
       </c>
       <c r="C375" t="n">
-        <v>228.4148762317583</v>
+        <v>226.5955516681031</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Drey Jameson</t>
+          <t>Nick Pivetta</t>
         </is>
       </c>
       <c r="C376" t="n">
-        <v>227.8083488405202</v>
+        <v>226.2085994995346</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Hayden Wesneski</t>
+          <t>Dane Dunning</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>227.7033575103038</v>
+        <v>224.7573393737807</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Kyle Muller</t>
+          <t>Hayden Wesneski</t>
         </is>
       </c>
       <c r="C378" t="n">
-        <v>227.2814556154006</v>
+        <v>224.1698618074623</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Vince Velasquez</t>
+          <t>Adrian Houser</t>
         </is>
       </c>
       <c r="C379" t="n">
-        <v>226.9784091609422</v>
+        <v>224.0583732875219</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
-        <v>345</v>
+        <v>188</v>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Adrian Houser</t>
+          <t>Yan Gomes</t>
         </is>
       </c>
       <c r="C380" t="n">
-        <v>226.8779100475118</v>
+        <v>223.9603865833423</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
-        <v>177</v>
+        <v>383</v>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Jake Meyers</t>
+          <t>Kyle Muller</t>
         </is>
       </c>
       <c r="C381" t="n">
-        <v>226.8189742386414</v>
+        <v>223.7479599125591</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
-        <v>364</v>
+        <v>392</v>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Kyle Harrison</t>
+          <t>Josh Fleming</t>
         </is>
       </c>
       <c r="C382" t="n">
-        <v>226.6861448052511</v>
+        <v>222.9082572681149</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Gavin Stone</t>
+          <t>Drey Jameson</t>
         </is>
       </c>
       <c r="C383" t="n">
-        <v>226.2555602731868</v>
+        <v>222.8469352519753</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
-        <v>392</v>
+        <v>359</v>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Josh Fleming</t>
+          <t>Vince Velasquez</t>
         </is>
       </c>
       <c r="C384" t="n">
-        <v>225.7277940281048</v>
+        <v>222.730954515249</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
-        <v>103</v>
+        <v>364</v>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Yasmani Grandal</t>
+          <t>Kyle Harrison</t>
         </is>
       </c>
       <c r="C385" t="n">
-        <v>225.5161997361181</v>
+        <v>222.4386901595578</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>José Suarez</t>
+          <t>Gavin Stone</t>
         </is>
       </c>
       <c r="C386" t="n">
-        <v>224.6031775841565</v>
+        <v>222.0081056274936</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
-        <v>347</v>
+        <v>168</v>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Trevor Williams</t>
+          <t>Christian Bethancourt</t>
         </is>
       </c>
       <c r="C387" t="n">
-        <v>224.465943466832</v>
+        <v>221.8970193260567</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Yan Gomes</t>
+          <t>Nick Fortes</t>
         </is>
       </c>
       <c r="C388" t="n">
-        <v>222.776336309787</v>
+        <v>220.9533477572444</v>
       </c>
     </row>
     <row r="389">
@@ -5486,98 +5486,98 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>222.6241739838415</v>
+        <v>220.5185961667033</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Wade Miley</t>
+          <t>José Suarez</t>
         </is>
       </c>
       <c r="C390" t="n">
-        <v>221.9527161942306</v>
+        <v>220.3557229384632</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
-        <v>390</v>
+        <v>165</v>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Zach Davies</t>
+          <t>Christian Vázquez</t>
         </is>
       </c>
       <c r="C391" t="n">
-        <v>220.9886728695478</v>
+        <v>220.2953955830278</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
-        <v>168</v>
+        <v>347</v>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Christian Bethancourt</t>
+          <t>Trevor Williams</t>
         </is>
       </c>
       <c r="C392" t="n">
-        <v>220.7129690525015</v>
+        <v>220.2184888211387</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Nick Fortes</t>
+          <t>Jake Rogers</t>
         </is>
       </c>
       <c r="C393" t="n">
-        <v>219.7692974836892</v>
+        <v>220.073618058302</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Christian Vázquez</t>
+          <t>Mike Zunino</t>
         </is>
       </c>
       <c r="C394" t="n">
-        <v>219.1113453094725</v>
+        <v>219.787813519809</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
-        <v>162</v>
+        <v>371</v>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Jake Rogers</t>
+          <t>Wade Miley</t>
         </is>
       </c>
       <c r="C395" t="n">
-        <v>218.8895677847467</v>
+        <v>217.7052615485374</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
-        <v>175</v>
+        <v>390</v>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Mike Zunino</t>
+          <t>Zach Davies</t>
         </is>
       </c>
       <c r="C396" t="n">
-        <v>218.6037632462538</v>
+        <v>217.4551771667062</v>
       </c>
     </row>
     <row r="397">
@@ -5590,7 +5590,7 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>215.8918951019085</v>
+        <v>217.0759453754637</v>
       </c>
     </row>
     <row r="398">
@@ -5603,7 +5603,7 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>215.7312700612986</v>
+        <v>216.9153203348538</v>
       </c>
     </row>
     <row r="399">
@@ -5616,7 +5616,7 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>214.2002153662308</v>
+        <v>215.384265639786</v>
       </c>
     </row>
     <row r="400">
@@ -5629,7 +5629,7 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>213.5236894654493</v>
+        <v>209.9901937626077</v>
       </c>
     </row>
   </sheetData>

--- a/predictions.xlsx
+++ b/predictions.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>318.4255953165891</v>
+        <v>313.9187461453697</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>312.6591878532291</v>
+        <v>306.1711885532732</v>
       </c>
     </row>
     <row r="4">
@@ -481,111 +481,111 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>309.4106766875283</v>
+        <v>304.658826309704</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kevin Gausman</t>
+          <t>Spencer Strider</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>301.1461484617391</v>
+        <v>296.4406812255606</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>201</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Spencer Strider</t>
+          <t>Fernando Tatis Jr.</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>300.6772213193884</v>
+        <v>296.1973272724166</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gerrit Cole</t>
+          <t>Kevin Gausman</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>298.894596734129</v>
+        <v>295.5401051098023</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>4</v>
+        <v>207</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fernando Tatis Jr.</t>
+          <t>Gerrit Cole</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>298.0442052108384</v>
+        <v>293.8940387965696</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Framber Valdez</t>
+          <t>Justin Verlander</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>297.4956712926299</v>
+        <v>291.7200237321218</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Justin Verlander</t>
+          <t>Framber Valdez</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>296.96532206462</v>
+        <v>291.5610033546033</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Aaron Nola</t>
+          <t>Shane McClanahan</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>294.9952418300255</v>
+        <v>289.8151709860756</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Shane McClanahan</t>
+          <t>Aaron Nola</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>294.1093465628491</v>
+        <v>289.7603807877986</v>
       </c>
     </row>
     <row r="13">
@@ -598,59 +598,59 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>292.5552742080036</v>
+        <v>287.7828232599872</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>217</v>
+        <v>17</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Max Scherzer</t>
+          <t>Kyle Tucker</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>291.3295578930154</v>
+        <v>287.6545357046214</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>17</v>
+        <v>217</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Kyle Tucker</t>
+          <t>Max Scherzer</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>290.597640613429</v>
+        <v>287.2719103320143</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Zack Wheeler</t>
+          <t>Aaron Judge</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>290.2678650652109</v>
+        <v>286.4411107280052</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sandy Alcantara</t>
+          <t>Zack Wheeler</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>288.8813705115873</v>
+        <v>285.824700451106</v>
       </c>
     </row>
     <row r="18">
@@ -663,46 +663,46 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>288.3067544478189</v>
+        <v>284.5134622048244</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Luis Castillo</t>
+          <t>Chris Sale</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>288.0801493152592</v>
+        <v>284.2363518658907</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Chris Sale</t>
+          <t>Sandy Alcantara</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>287.9070143022035</v>
+        <v>283.9612388964926</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Shane Bieber</t>
+          <t>Luis Castillo</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>287.745612621812</v>
+        <v>283.8661376571922</v>
       </c>
     </row>
     <row r="22">
@@ -715,98 +715,98 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>286.1583848565116</v>
+        <v>283.6022826440189</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Aaron Judge</t>
+          <t>Shane Bieber</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>286.0988694577145</v>
+        <v>283.1189604262524</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>220</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Nathan Eovaldi</t>
+          <t>Juan Soto</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>284.1710443770691</v>
+        <v>281.534314646016</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Tyler Glasnow</t>
+          <t>Freddie Freeman</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>283.8049753321203</v>
+        <v>281.0005190480617</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>13</v>
+        <v>216</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Julio Rodríguez</t>
+          <t>Tyler Glasnow</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>283.7170939720066</v>
+        <v>280.9817812605908</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>215</v>
+        <v>13</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Logan Webb</t>
+          <t>Julio Rodríguez</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>283.6753314569691</v>
+        <v>280.9608220831071</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Pablo López</t>
+          <t>Nathan Eovaldi</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>282.0469095467148</v>
+        <v>279.9933778967614</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>12</v>
+        <v>215</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Freddie Freeman</t>
+          <t>Logan Webb</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>282.0461446281193</v>
+        <v>279.1401853295235</v>
       </c>
     </row>
     <row r="30">
@@ -819,20 +819,20 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>282.0308200912649</v>
+        <v>278.8755907051137</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>1</v>
+        <v>222</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Juan Soto</t>
+          <t>Pablo López</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>281.7497259353757</v>
+        <v>278.7625649172331</v>
       </c>
     </row>
     <row r="32">
@@ -845,462 +845,462 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>281.6152060897355</v>
+        <v>278.5142310929181</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>231</v>
+        <v>5</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Logan Gilbert</t>
+          <t>Yordan Alvarez</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>281.02552543078</v>
+        <v>278.4068020049938</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>37</v>
+        <v>231</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Cedric Mullins</t>
+          <t>Logan Gilbert</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>280.5827206640254</v>
+        <v>277.798135533857</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>44</v>
+        <v>223</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Randy Arozarena</t>
+          <t>Joe Ryan</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>279.7591024557138</v>
+        <v>276.8443250738377</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>223</v>
+        <v>44</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Joe Ryan</t>
+          <t>Randy Arozarena</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>279.3485257436586</v>
+        <v>276.6926260281435</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>230</v>
+        <v>37</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>George Kirby</t>
+          <t>Cedric Mullins</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>278.7100008637343</v>
+        <v>276.5997977615933</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Yordan Alvarez</t>
+          <t>Mookie Betts</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>278.0678528085473</v>
+        <v>276.0870320002351</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>23</v>
+        <v>230</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Trea Turner</t>
+          <t>George Kirby</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>277.7650861587606</v>
+        <v>275.4402495198037</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Bobby Witt Jr.</t>
+          <t>Mike Trout</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>277.4461725809465</v>
+        <v>275.3376230873288</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>352</v>
+        <v>23</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Liam Hendriks</t>
+          <t>Trea Turner</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>277.1373492685268</v>
+        <v>274.8676950434447</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>224</v>
+        <v>24</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Lance Lynn</t>
+          <t>Rafael Devers</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>276.6804458243689</v>
+        <v>274.8520335373653</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Esteury Ruiz</t>
+          <t>Pete Alonso</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>276.3981844667882</v>
+        <v>274.5230317775661</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Mookie Betts</t>
+          <t>Vladimir Guerrero Jr.</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>276.0468540354436</v>
+        <v>274.3419751445252</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Hunter Greene</t>
+          <t>Lance Lynn</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>275.5650350879177</v>
+        <v>274.0333820583788</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45</v>
+        <v>218</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Bryce Harper</t>
+          <t>Hunter Greene</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>274.8793639123627</v>
+        <v>274.0299085194194</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Marcus Semien</t>
+          <t>Bobby Witt Jr.</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>274.6326442015975</v>
+        <v>273.7476786995762</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Adolis García</t>
+          <t>Paul Goldschmidt</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>274.216991039384</v>
+        <v>273.7108331301275</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>24</v>
+        <v>352</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Rafael Devers</t>
+          <t>Liam Hendriks</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>274.1197823079583</v>
+        <v>273.6876025914381</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Bo Bichette</t>
+          <t>Bryce Harper</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>273.9514997561861</v>
+        <v>273.6860134226691</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Vladimir Guerrero Jr.</t>
+          <t>Marcus Semien</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>273.9123355520679</v>
+        <v>273.562499833367</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Paul Goldschmidt</t>
+          <t>Adolis García</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>273.7965970786256</v>
+        <v>273.3654421855829</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Mike Trout</t>
+          <t>Bo Bichette</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>273.4229006043494</v>
+        <v>272.8185606915408</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>228</v>
+        <v>34</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Joe Musgrove</t>
+          <t>Matt Olson</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>273.1856295236901</v>
+        <v>271.3762318490703</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Alex Cobb</t>
+          <t>Joe Musgrove</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>272.8808985826263</v>
+        <v>270.9131579923149</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Pete Alonso</t>
+          <t>Esteury Ruiz</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>272.816844955364</v>
+        <v>270.5484886257856</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Zach Eflin</t>
+          <t>Luis Severino</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>272.6204722243442</v>
+        <v>270.3361315793294</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Luis Severino</t>
+          <t>Charlie Morton</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>272.170845543277</v>
+        <v>270.2811091770697</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Charlie Morton</t>
+          <t>Alex Cobb</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>272.1704210144527</v>
+        <v>270.0745515502558</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>8</v>
+        <v>246</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Wander Franco</t>
+          <t>Zach Eflin</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>271.6799686275928</v>
+        <v>269.8413103234959</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>49</v>
+        <v>245</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Michael Harris II</t>
+          <t>Carlos Rodón</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>271.2444886271796</v>
+        <v>269.4492684848067</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>245</v>
+        <v>8</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Carlos Rodón</t>
+          <t>Wander Franco</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>270.7556959223843</v>
+        <v>268.9123258097792</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Jordan Montgomery</t>
+          <t>Lucas Giolito</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>270.6661115260845</v>
+        <v>268.7977407766745</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>244</v>
+        <v>49</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Lucas Giolito</t>
+          <t>Michael Harris II</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>270.5870526080543</v>
+        <v>268.4849180143563</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>55</v>
+        <v>232</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Corbin Carroll</t>
+          <t>Jordan Montgomery</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>270.3393493002245</v>
+        <v>268.3684033609923</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Matt Olson</t>
+          <t>Austin Riley</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>269.3939087537659</v>
+        <v>267.9876243836362</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>336</v>
+        <v>47</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Josh Hader</t>
+          <t>Byron Buxton</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>269.2569839530703</v>
+        <v>267.5277299608833</v>
       </c>
     </row>
     <row r="68">
@@ -1313,176 +1313,176 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>269.1240632485489</v>
+        <v>267.4461605101216</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Eduardo Rodriguez</t>
+          <t>Corbin Carroll</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>268.8984120292205</v>
+        <v>267.3535866493697</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Emmanuel Clase</t>
+          <t>Josh Hader</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>268.3898801539972</v>
+        <v>267.0569334119121</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Brandon Woodruff</t>
+          <t>Dylan Cease</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>268.2659142546654</v>
+        <v>266.8680318335635</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>120</v>
+        <v>229</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Starling Marte</t>
+          <t>Eduardo Rodriguez</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>268.0429612401417</v>
+        <v>266.8532362812614</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Dylan Cease</t>
+          <t>Brandon Woodruff</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>268.0421615065574</v>
+        <v>266.7976306970954</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>333</v>
+        <v>38</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Félix Bautista</t>
+          <t>George Springer</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>267.9378831851807</v>
+        <v>266.7893271850936</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Christian Yelich</t>
+          <t>Francisco Lindor</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>267.815750510516</v>
+        <v>266.6277913978602</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Jorge Mateo</t>
+          <t>Christian Yelich</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>267.5792460629922</v>
+        <v>266.6010443305811</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>385</v>
+        <v>333</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Raisel Iglesias</t>
+          <t>Félix Bautista</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>267.5387594551672</v>
+        <v>265.8567916914571</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>47</v>
+        <v>355</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Byron Buxton</t>
+          <t>Emmanuel Clase</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>267.2243599706146</v>
+        <v>264.9584238491532</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>363</v>
+        <v>9</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Ryan Pressly</t>
+          <t>Alex Bregman</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>267.1416642440966</v>
+        <v>264.7984947602702</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Francisco Lindor</t>
+          <t>Kyle Schwarber</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>267.1356285701481</v>
+        <v>264.7975945143929</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>38</v>
+        <v>385</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>George Springer</t>
+          <t>Raisel Iglesias</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>267.0745926949531</v>
+        <v>264.7757614035376</v>
       </c>
     </row>
     <row r="82">
@@ -1495,254 +1495,254 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>266.8213678242359</v>
+        <v>264.6642883953585</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>350</v>
+        <v>33</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>David Bednar</t>
+          <t>Luis Robert Jr.</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>266.5882373598249</v>
+        <v>264.6347742174548</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>35</v>
+        <v>247</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Austin Riley</t>
+          <t>Cristian Javier</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>266.5624319591049</v>
+        <v>264.5976015142955</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Nico Hoerner</t>
+          <t>Starling Marte</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>266.3997948543085</v>
+        <v>264.5717411807486</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Nestor Cortes</t>
+          <t>Blake Snell</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>265.494203952911</v>
+        <v>264.5571158994987</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>33</v>
+        <v>256</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Luis Robert Jr.</t>
+          <t>Nestor Cortes</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>265.4413326877979</v>
+        <v>264.3612573453228</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Blake Snell</t>
+          <t>Kodai Senga</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>265.3987531950677</v>
+        <v>264.1697352712736</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>237</v>
+        <v>350</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Merrill Kelly</t>
+          <t>David Bednar</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>265.2406725919245</v>
+        <v>264.1043232614614</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>235</v>
+        <v>363</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Kodai Senga</t>
+          <t>Ryan Pressly</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>265.2337242811303</v>
+        <v>264.0737520945901</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Sonny Gray</t>
+          <t>Bryan Reynolds</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>265.2155447063528</v>
+        <v>264.0690095577589</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>247</v>
+        <v>15</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Cristian Javier</t>
+          <t>Nolan Arenado</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>265.0985904648532</v>
+        <v>263.9712494069952</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Jesús Luzardo</t>
+          <t>Sonny Gray</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>264.4727177320196</v>
+        <v>263.9083973662254</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Andrés Giménez</t>
+          <t>Jose Altuve</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>264.1920334653557</v>
+        <v>263.7283105646229</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>36</v>
+        <v>248</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Harrison Bader</t>
+          <t>Jesús Luzardo</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>264.1096989648551</v>
+        <v>263.3973656358767</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>José Berríos</t>
+          <t>Merrill Kelly</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>264.0831887762095</v>
+        <v>263.3933885140121</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Bryan Reynolds</t>
+          <t>Ozzie Albies</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>263.871579793798</v>
+        <v>263.1091084790387</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Jose Altuve</t>
+          <t>Jorge Mateo</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>263.7683241426252</v>
+        <v>263.060517444241</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Ozzie Albies</t>
+          <t>Nico Hoerner</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>263.7256761646153</v>
+        <v>263.026164724841</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>9</v>
+        <v>250</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Alex Bregman</t>
+          <t>José Berríos</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>263.6908135049969</v>
+        <v>262.7797557700322</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>15</v>
+        <v>243</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Nolan Arenado</t>
+          <t>Freddy Peralta</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>263.5476682325225</v>
+        <v>262.7067315708533</v>
       </c>
     </row>
     <row r="102">
@@ -1755,111 +1755,111 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>263.1076226723821</v>
+        <v>262.6028439530844</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Freddy Peralta</t>
+          <t>Andrew Heaney</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>262.908353650173</v>
+        <v>262.209792302821</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Kyle Schwarber</t>
+          <t>Harrison Bader</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>262.822010097974</v>
+        <v>261.9268773946015</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>84</v>
+        <v>397</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Anthony Volpe</t>
+          <t>Andrés Muñoz</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>262.6269368304917</v>
+        <v>261.8600993498924</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>397</v>
+        <v>40</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Andrés Muñoz</t>
+          <t>Andrés Giménez</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>262.6268695725255</v>
+        <v>261.7396384153822</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>253</v>
+        <v>16</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Andrew Heaney</t>
+          <t>Matt Chapman</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>262.6253218411045</v>
+        <v>261.4510734804722</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>234</v>
+        <v>72</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Hunter Brown</t>
+          <t>Christian Walker</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>262.5494629831539</v>
+        <v>261.4099457145003</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>76</v>
+        <v>234</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Thairo Estrada</t>
+          <t>Hunter Brown</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>262.0879830097766</v>
+        <v>261.3209959355387</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Tommy Edman</t>
+          <t>Daulton Varsho</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>261.6484667647625</v>
+        <v>260.8588754259561</v>
       </c>
     </row>
     <row r="111">
@@ -1872,592 +1872,592 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>261.5245955039335</v>
+        <v>260.5584584064426</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Daulton Varsho</t>
+          <t>Corey Seager</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>261.2194559163711</v>
+        <v>260.4664115096662</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>396</v>
+        <v>84</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Pete Fairbanks</t>
+          <t>Anthony Volpe</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>261.0816419330083</v>
+        <v>260.2241688294773</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>365</v>
+        <v>19</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Devin Williams</t>
+          <t>Xander Bogaerts</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>261.0542048171009</v>
+        <v>260.1970539752498</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>239</v>
+        <v>76</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Marcus Stroman</t>
+          <t>Thairo Estrada</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>260.6375715527382</v>
+        <v>259.9418183871707</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>259</v>
+        <v>41</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Miles Mikolas</t>
+          <t>Manny Machado</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>260.4523515167187</v>
+        <v>259.8996785213853</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>260</v>
+        <v>365</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Chris Bassitt</t>
+          <t>Devin Williams</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>260.4265583357795</v>
+        <v>259.4174540503054</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>19</v>
+        <v>396</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Xander Bogaerts</t>
+          <t>Pete Fairbanks</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>260.0821138949798</v>
+        <v>259.3777465723365</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>391</v>
+        <v>260</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Camilo Doval</t>
+          <t>Chris Bassitt</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>260.074749428931</v>
+        <v>259.2974784443402</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Matt Chapman</t>
+          <t>Masataka Yoshida</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>259.9273175984601</v>
+        <v>259.0167939047449</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>72</v>
+        <v>239</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Christian Walker</t>
+          <t>Marcus Stroman</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>259.8936480934765</v>
+        <v>258.991337779223</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>394</v>
+        <v>62</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Jordan Romano</t>
+          <t>Tommy Edman</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>259.8249561147154</v>
+        <v>258.9579567301838</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>41</v>
+        <v>238</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Manny Machado</t>
+          <t>Mitch Keller</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>259.8040781151969</v>
+        <v>258.9086596402467</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Mitch Keller</t>
+          <t>Miles Mikolas</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>259.739154403847</v>
+        <v>258.761074377788</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Corey Seager</t>
+          <t>Willy Adames</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>259.7384243229761</v>
+        <v>258.5512030969563</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>261</v>
+        <v>132</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Max Fried</t>
+          <t>Ryan Mountcastle</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>259.6128471868809</v>
+        <v>258.3914119476108</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Masataka Yoshida</t>
+          <t>Teoscar Hernández</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>259.2998408770434</v>
+        <v>258.2162467749998</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Tim Anderson</t>
+          <t>Gleyber Torres</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>258.8539577004232</v>
+        <v>258.2111096995257</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>65</v>
+        <v>261</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Gleyber Torres</t>
+          <t>Max Fried</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>258.6751515128257</v>
+        <v>258.1293010880588</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>264</v>
+        <v>67</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Alex Wood</t>
+          <t>Seiya Suzuki</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>258.2525557942504</v>
+        <v>258.1255560770965</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>60</v>
+        <v>394</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Steven Kwan</t>
+          <t>Jordan Romano</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>258.1315944638751</v>
+        <v>258.0990886731523</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>67</v>
+        <v>264</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Seiya Suzuki</t>
+          <t>Alex Wood</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>257.9709717901101</v>
+        <v>258.0490160820985</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>141</v>
+        <v>391</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Jarred Kelenic</t>
+          <t>Camilo Doval</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>257.9399362807029</v>
+        <v>257.7837543499749</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>373</v>
+        <v>77</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Evan Phillips</t>
+          <t>Nathaniel Lowe</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>257.8483323899811</v>
+        <v>257.5247051025091</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Willy Adames</t>
+          <t>Jarred Kelenic</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>257.8201655463727</v>
+        <v>257.4381429211149</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Jeremy Peña</t>
+          <t>Max Muncy</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>257.7426272006988</v>
+        <v>257.236741514984</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Teoscar Hernández</t>
+          <t>Tim Anderson</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>257.7132117759083</v>
+        <v>257.1944240054053</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>J.T. Realmuto</t>
+          <t>Jeremy Peña</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>257.4800317885602</v>
+        <v>257.0648905830992</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Ryan Mountcastle</t>
+          <t>Ian Happ</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>257.3725316853393</v>
+        <v>256.8386911807655</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>114</v>
+        <v>240</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Jonathan India</t>
+          <t>James Paxton</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>256.813394880044</v>
+        <v>256.5726482860338</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>91</v>
+        <v>270</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Jose Siri</t>
+          <t>Grayson Rodriguez</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>256.7931179124286</v>
+        <v>256.5709558195508</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Grayson Rodriguez</t>
+          <t>Reid Detmers</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>256.7285850785918</v>
+        <v>256.5010011333525</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Ian Happ</t>
+          <t>Anthony Rizzo</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>256.6896514083599</v>
+        <v>256.4938707431753</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>361</v>
+        <v>21</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>José Alvarado</t>
+          <t>Will Smith</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>256.678384652526</v>
+        <v>256.4181124088579</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Nathaniel Lowe</t>
+          <t>Jonathan India</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>256.5892473910487</v>
+        <v>256.4046586420241</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>252</v>
+        <v>373</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Reid Detmers</t>
+          <t>Evan Phillips</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>256.2436711808637</v>
+        <v>256.2471309079751</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>James Paxton</t>
+          <t>Steven Kwan</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>256.1839306186241</v>
+        <v>256.2397771492676</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>241</v>
+        <v>117</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Brady Singer</t>
+          <t>Anthony Santander</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>256.1677570265709</v>
+        <v>255.9870334524922</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>122</v>
+        <v>361</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Jazz Chisholm Jr.</t>
+          <t>José Alvarado</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>256.1606552002743</v>
+        <v>255.9773116287682</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>372</v>
+        <v>31</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Reynaldo López</t>
+          <t>J.T. Realmuto</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>256.1036383883241</v>
+        <v>255.7402928328823</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>275</v>
+        <v>372</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Alek Manoah</t>
+          <t>Reynaldo López</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>255.9151227361682</v>
+        <v>255.5021430713694</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>105</v>
+        <v>275</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Cody Bellinger</t>
+          <t>Alek Manoah</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>255.880378551825</v>
+        <v>255.4863475117728</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Anthony Rizzo</t>
+          <t>Rowdy Tellez</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>255.5819911241591</v>
+        <v>255.4720732433545</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>388</v>
+        <v>241</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Chris Martin</t>
+          <t>Brady Singer</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>255.4495757828656</v>
+        <v>255.3267589770835</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Max Muncy</t>
+          <t>Jose Siri</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>255.4373038049045</v>
+        <v>255.2996722596197</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Will Smith</t>
+          <t>Brandon Lowe</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>255.4282358485614</v>
+        <v>255.0685795439405</v>
       </c>
     </row>
     <row r="157">
@@ -2470,189 +2470,189 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>255.1563253372244</v>
+        <v>254.9837728605771</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Amed Rosario</t>
+          <t>Cody Bellinger</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>254.8739167182953</v>
+        <v>254.7749645854164</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>370</v>
+        <v>42</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Matt Brash</t>
+          <t>Yandy Díaz</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>254.7207559368457</v>
+        <v>254.7705199469509</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>A.J. Minter</t>
+          <t>Matt Brash</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>254.6961545967472</v>
+        <v>254.4615150382867</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>117</v>
+        <v>272</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Anthony Santander</t>
+          <t>Sean Manaea</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>254.363877778707</v>
+        <v>254.3274617297157</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>53</v>
+        <v>366</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Brandon Lowe</t>
+          <t>A.J. Minter</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>254.2365831760893</v>
+        <v>254.2896653629633</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>360</v>
+        <v>388</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Joe Kelly</t>
+          <t>Chris Martin</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>254.1783166425616</v>
+        <v>254.072671774252</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>272</v>
+        <v>89</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Sean Manaea</t>
+          <t>Hunter Renfroe</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>254.144497590157</v>
+        <v>254.0424689905775</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Ke'Bryan Hayes</t>
+          <t>Jazz Chisholm Jr.</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>254.0807474387971</v>
+        <v>253.8105054644168</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>79</v>
+        <v>360</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Miguel Vargas</t>
+          <t>Joe Kelly</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>254.0798826614203</v>
+        <v>253.7784599853854</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>378</v>
+        <v>79</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Adbert Alzolay</t>
+          <t>Miguel Vargas</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>254.0292019057034</v>
+        <v>253.7607752599856</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Yandy Díaz</t>
+          <t>Vinnie Pasquantino</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>253.9428787465166</v>
+        <v>253.7595995455519</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>123</v>
+        <v>268</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Rowdy Tellez</t>
+          <t>JP Sears</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>253.802792555632</v>
+        <v>253.7478109975904</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>254</v>
+        <v>20</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Justin Steele</t>
+          <t>Carlos Correa</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>253.768357717773</v>
+        <v>253.727720824165</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>JP Sears</t>
+          <t>Justin Steele</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>253.5569717536505</v>
+        <v>253.4817969652719</v>
       </c>
     </row>
     <row r="172">
@@ -2665,241 +2665,241 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>253.4114898890004</v>
+        <v>253.4641978630888</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Ketel Marte</t>
+          <t>Nolan Gorman</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>253.3114911929183</v>
+        <v>253.4249675503866</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>66</v>
+        <v>378</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Gunnar Henderson</t>
+          <t>Adbert Alzolay</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>253.2272946416919</v>
+        <v>253.3726604093282</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>134</v>
+        <v>66</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Leody Taveras</t>
+          <t>Gunnar Henderson</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>253.1991561251068</v>
+        <v>253.3125739408406</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>356</v>
+        <v>73</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Aroldis Chapman</t>
+          <t>Ketel Marte</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>253.1072733271007</v>
+        <v>253.2590794556453</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Javier Báez</t>
+          <t>Amed Rosario</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>252.8651958228079</v>
+        <v>253.2369667532422</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>93</v>
+        <v>356</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Vinnie Pasquantino</t>
+          <t>Aroldis Chapman</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>252.7167239519904</v>
+        <v>252.9637012006061</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Matt McLain</t>
+          <t>Salvador Perez</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>252.5447321219634</v>
+        <v>252.8677251878961</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Hunter Renfroe</t>
+          <t>Brandon Nimmo</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>252.4120873128032</v>
+        <v>252.7994677918669</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Brandon Nimmo</t>
+          <t>Javier Báez</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>252.3110163886141</v>
+        <v>252.6144612042468</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Nolan Gorman</t>
+          <t>Adley Rutschman</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>252.2245189374611</v>
+        <v>252.2272440553415</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Carlos Correa</t>
+          <t>Lars Nootbaar</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>252.0111982253488</v>
+        <v>252.2227530021956</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>108</v>
+        <v>267</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Andrew Benintendi</t>
+          <t>Nick Lodolo</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>251.8703567205972</v>
+        <v>252.2188134982815</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>267</v>
+        <v>82</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Nick Lodolo</t>
+          <t>Ke'Bryan Hayes</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>251.8416416031353</v>
+        <v>252.1605552320449</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Lars Nootbaar</t>
+          <t>James Outman</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>251.805288146952</v>
+        <v>251.905856675601</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>James Outman</t>
+          <t>Matt McLain</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>251.5946593185696</v>
+        <v>251.8823859875515</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>280</v>
+        <v>174</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Kyle Gibson</t>
+          <t>José Abreu</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>251.5590860194533</v>
+        <v>251.5219062155705</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>395</v>
+        <v>148</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Alexis Díaz</t>
+          <t>Kris Bryant</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>251.5235254068994</v>
+        <v>251.3603090397066</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Salvador Perez</t>
+          <t>Leody Taveras</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>251.3539968407458</v>
+        <v>251.328124274641</v>
       </c>
     </row>
     <row r="191">
@@ -2912,254 +2912,254 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>251.2459222588627</v>
+        <v>251.27252643129</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>11</v>
+        <v>184</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Adley Rutschman</t>
+          <t>Josh Naylor</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>251.1120948549001</v>
+        <v>251.2659781010659</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>184</v>
+        <v>108</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Josh Naylor</t>
+          <t>Andrew Benintendi</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>251.0634542064014</v>
+        <v>251.1543404891298</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>376</v>
+        <v>164</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Hunter Harvey</t>
+          <t>Jorge Soler</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>250.8324768124842</v>
+        <v>251.1523056769675</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Myles Straw</t>
+          <t>Kyle Gibson</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>250.7628497174495</v>
+        <v>251.0227864231715</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Kris Bryant</t>
+          <t>Alex Verdugo</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>250.7532897735213</v>
+        <v>250.7588042033903</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>174</v>
+        <v>395</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>José Abreu</t>
+          <t>Alexis Díaz</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>250.7202852732947</v>
+        <v>250.6809403722288</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Alex Verdugo</t>
+          <t>Sean Murphy</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>250.665203543229</v>
+        <v>250.667140981045</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>TJ Friedl</t>
+          <t>Andrew Vaughn</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>250.5761602095865</v>
+        <v>250.6334148470801</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>153</v>
+        <v>282</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Ryan McMahon</t>
+          <t>Bailey Ober</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>250.2529976586397</v>
+        <v>250.5902059500651</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>389</v>
+        <v>74</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Craig Kimbrel</t>
+          <t>Ty France</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>250.060404539647</v>
+        <v>250.5808141438532</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>282</v>
+        <v>153</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Bailey Ober</t>
+          <t>Ryan McMahon</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>249.9724133949108</v>
+        <v>250.5490619598922</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>27</v>
+        <v>376</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Sean Murphy</t>
+          <t>Hunter Harvey</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>249.8236114524084</v>
+        <v>250.3021555813161</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Ranger Suárez</t>
+          <t>Edward Cabrera</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>249.4970787823387</v>
+        <v>250.0065400862493</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>74</v>
+        <v>389</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Ty France</t>
+          <t>Craig Kimbrel</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>249.3859059655785</v>
+        <v>249.9354876521131</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>271</v>
+        <v>192</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Edward Cabrera</t>
+          <t>TJ Friedl</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>249.3690077188759</v>
+        <v>249.7702423070544</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Christopher Morel</t>
+          <t>Mitch Haniger</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>249.313479197662</v>
+        <v>249.664978556945</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>164</v>
+        <v>255</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Jorge Soler</t>
+          <t>Ranger Suárez</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>249.2236834390253</v>
+        <v>249.2682056614873</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Ezequiel Tovar</t>
+          <t>Christopher Morel</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>249.2044179439245</v>
+        <v>249.2529851629699</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Andrew Vaughn</t>
+          <t>Jake Cronenworth</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>249.1570148137006</v>
+        <v>249.1141861173462</v>
       </c>
     </row>
     <row r="211">
@@ -3172,85 +3172,85 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>248.6410622528599</v>
+        <v>248.7319343623172</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>277</v>
+        <v>138</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Martín Pérez</t>
+          <t>Giancarlo Stanton</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>248.4358392353119</v>
+        <v>248.5902579097832</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Jake Cronenworth</t>
+          <t>Justin Turner</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>248.3538839883379</v>
+        <v>248.5778541714688</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>129</v>
+        <v>257</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Josh Rojas</t>
+          <t>MacKenzie Gore</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>248.329984444106</v>
+        <v>248.471681272938</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Justin Turner</t>
+          <t>Josh Jung</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>248.1561705265474</v>
+        <v>248.4572317724464</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>262</v>
+        <v>196</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Patrick Sandoval</t>
+          <t>Ezequiel Tovar</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>248.1461618485822</v>
+        <v>248.4277913170787</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Mitch Haniger</t>
+          <t>Triston Casas</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>248.0874416035128</v>
+        <v>248.3973862350551</v>
       </c>
     </row>
     <row r="218">
@@ -3263,215 +3263,215 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>247.8297141731507</v>
+        <v>248.2475678504201</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>MacKenzie Gore</t>
+          <t>Patrick Sandoval</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>247.7923302584319</v>
+        <v>248.2470073718892</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>113</v>
+        <v>277</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Josh Jung</t>
+          <t>Martín Pérez</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>247.4516679730704</v>
+        <v>248.2081442348165</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Luis Arraez</t>
+          <t>Myles Straw</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>247.4165744667167</v>
+        <v>248.009589193269</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>284</v>
+        <v>131</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Aaron Civale</t>
+          <t>Michael Conforto</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>247.3883409729345</v>
+        <v>247.9549349129728</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>185</v>
+        <v>287</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Triston Casas</t>
+          <t>Triston McKenzie</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>247.1400778342505</v>
+        <v>247.9095786128277</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Jeff McNeil</t>
+          <t>Austin Hays</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>247.1255685164859</v>
+        <v>247.9088186623542</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>116</v>
+        <v>284</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Austin Hays</t>
+          <t>Aaron Civale</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>247.06002959378</v>
+        <v>247.7548880546549</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Giancarlo Stanton</t>
+          <t>Luis Arraez</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>247.0184743129588</v>
+        <v>247.1209768061817</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>377</v>
+        <v>314</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Aaron Bummer</t>
+          <t>Anthony DeSclafani</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>247.0149907050408</v>
+        <v>247.1207320923218</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>287</v>
+        <v>377</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Triston McKenzie</t>
+          <t>Aaron Bummer</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>246.9563810914193</v>
+        <v>247.0610400268477</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>314</v>
+        <v>172</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Anthony DeSclafani</t>
+          <t>Seth Brown</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>246.8001687568544</v>
+        <v>247.0054612684256</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>131</v>
+        <v>50</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Michael Conforto</t>
+          <t>Jeff McNeil</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>246.5393978049284</v>
+        <v>246.9936937242273</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Seth Brown</t>
+          <t>Josh Bell</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>246.5331628034158</v>
+        <v>246.9726643660947</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>143</v>
+        <v>288</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Tyler O'Neill</t>
+          <t>Kyle Bradish</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>246.4214747829988</v>
+        <v>246.9499803902996</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>288</v>
+        <v>189</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Kyle Bradish</t>
+          <t>Brent Rooker</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>246.1619570557999</v>
+        <v>246.8831752989728</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Josh Bell</t>
+          <t>Josh Rojas</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>245.6348398744041</v>
+        <v>246.8222779881131</v>
       </c>
     </row>
     <row r="235">
@@ -3484,176 +3484,176 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>245.4875100539897</v>
+        <v>246.8200031622029</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>94</v>
+        <v>292</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Jorge Polanco</t>
+          <t>Yusei Kikuchi</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>245.4562698738382</v>
+        <v>246.737057878049</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>190</v>
+        <v>112</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Brandon Marsh</t>
+          <t>Joey Gallo</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>245.3809735272428</v>
+        <v>246.5662821127384</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>125</v>
+        <v>281</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Taylor Walls</t>
+          <t>Drew Smyly</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>245.3567534337802</v>
+        <v>246.5029791803287</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>281</v>
+        <v>69</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Drew Smyly</t>
+          <t>Brett Baty</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>245.3182567374249</v>
+        <v>246.2700983587688</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>97</v>
+        <v>297</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Trent Grisham</t>
+          <t>Steven Matz</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>245.2905542583986</v>
+        <v>246.207483775909</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Ramón Laureano</t>
+          <t>Tyler O'Neill</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>245.2880387191699</v>
+        <v>246.1073520269589</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>189</v>
+        <v>294</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Brent Rooker</t>
+          <t>Matthew Boyd</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>245.227710939027</v>
+        <v>245.9528144887433</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>157</v>
+        <v>286</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Manuel Margot</t>
+          <t>Michael Wacha</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>245.1178113889509</v>
+        <v>245.8403220346787</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>297</v>
+        <v>94</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Steven Matz</t>
+          <t>Jorge Polanco</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>245.1136567277949</v>
+        <v>245.7954815832221</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>292</v>
+        <v>97</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Yusei Kikuchi</t>
+          <t>Trent Grisham</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>245.0796597062496</v>
+        <v>245.7690725498098</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Brett Baty</t>
+          <t>Eugenio Suárez</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>245.0451580695781</v>
+        <v>245.7263604118129</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Michael Wacha</t>
+          <t>Eury Pérez</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>245.0350812234592</v>
+        <v>245.7042936835861</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Matthew Boyd</t>
+          <t>Tony Gonsolin</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>244.9595793595809</v>
+        <v>245.7001913684596</v>
       </c>
     </row>
     <row r="249">
@@ -3666,397 +3666,397 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>244.8112428884967</v>
+        <v>245.6814326645459</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>68</v>
+        <v>295</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Anthony Rendon</t>
+          <t>Taj Bradley</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>244.7259567698142</v>
+        <v>245.3731342612412</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>269</v>
+        <v>344</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Bryce Elder</t>
+          <t>Mason Miller</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>244.6887391370005</v>
+        <v>245.3424855703487</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Tony Gonsolin</t>
+          <t>Jack Flaherty</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>244.6659827862177</v>
+        <v>245.2986572977123</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Eury Pérez</t>
+          <t>Bryce Miller</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>244.66464167269</v>
+        <v>245.2672332830891</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Joey Gallo</t>
+          <t>Tanner Houck</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>244.4846004328224</v>
+        <v>245.1839783546529</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Bryce Miller</t>
+          <t>Domingo Germán</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>244.3916829131099</v>
+        <v>245.0549904580041</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>304</v>
+        <v>68</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Jack Flaherty</t>
+          <t>Anthony Rendon</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>244.3286757950236</v>
+        <v>244.9976218294196</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>295</v>
+        <v>80</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Taj Bradley</t>
+          <t>Yoán Moncada</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>244.2241960138377</v>
+        <v>244.9275417770686</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>266</v>
+        <v>133</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Tanner Houck</t>
+          <t>Ramón Laureano</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>244.1747627627454</v>
+        <v>244.8831714770322</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Yoán Moncada</t>
+          <t>Joc Pederson</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>244.0824587461758</v>
+        <v>244.7294200135097</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>290</v>
+        <v>190</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Domingo Germán</t>
+          <t>Brandon Marsh</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>243.9443526179732</v>
+        <v>244.7149202662114</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>194</v>
+        <v>269</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Jon Berti</t>
+          <t>Bryce Elder</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>243.8994825584279</v>
+        <v>244.6562972589896</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>173</v>
+        <v>125</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Joc Pederson</t>
+          <t>Taylor Walls</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>243.8828863589371</v>
+        <v>244.619468180189</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>344</v>
+        <v>136</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Mason Miller</t>
+          <t>Taylor Ward</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>243.6486767165796</v>
+        <v>244.551981584911</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>136</v>
+        <v>321</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Taylor Ward</t>
+          <t>Dean Kremer</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>243.5121332200269</v>
+        <v>244.2760363657953</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Patrick Corbin</t>
+          <t>Matt Strahm</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>243.4824169217772</v>
+        <v>244.1545125514283</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>321</v>
+        <v>159</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Dean Kremer</t>
+          <t>Eloy Jiménez</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>243.4279411114751</v>
+        <v>244.0405068163031</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>104</v>
+        <v>273</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Eugenio Suárez</t>
+          <t>Patrick Corbin</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>243.3554871096567</v>
+        <v>243.9406244902839</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Zach Neto</t>
+          <t>Orlando Arcia</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>243.0876781724683</v>
+        <v>243.9259941299231</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Eloy Jiménez</t>
+          <t>Manuel Margot</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>242.873943384165</v>
+        <v>243.9038786543854</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>279</v>
+        <v>90</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Zack Greinke</t>
+          <t>DJ LeMahieu</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>242.7406152338777</v>
+        <v>243.3614862919951</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Orlando Arcia</t>
+          <t>J.D. Davis</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>242.7264800898569</v>
+        <v>243.3536190146899</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>92</v>
+        <v>302</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Ha-Seong Kim</t>
+          <t>David Peterson</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>242.6522142749259</v>
+        <v>243.3466611527729</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>156</v>
+        <v>274</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Bryson Stott</t>
+          <t>Taijuan Walker</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>242.6219289324464</v>
+        <v>243.3242359193902</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>90</v>
+        <v>276</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>DJ LeMahieu</t>
+          <t>Garrett Whitlock</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>242.5728588870218</v>
+        <v>243.3241074189273</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>150</v>
+        <v>307</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Josh Lowe</t>
+          <t>Tarik Skubal</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>242.2450581548175</v>
+        <v>243.2842812877475</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Taijuan Walker</t>
+          <t>Zack Greinke</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>242.2339343315392</v>
+        <v>243.0073019790983</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Tarik Skubal</t>
+          <t>Tyler Wells</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>242.0697918770854</v>
+        <v>243.0066185800331</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>J.D. Davis</t>
+          <t>Jeimer Candelario</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>242.0672039682628</v>
+        <v>242.9488980840414</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Willson Contreras</t>
+          <t>Zach Neto</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>242.0268507841923</v>
+        <v>242.8613518195299</v>
       </c>
     </row>
     <row r="280">
@@ -4069,46 +4069,46 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>241.9950488587485</v>
+        <v>242.8350302907989</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>276</v>
+        <v>102</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Garrett Whitlock</t>
+          <t>Willson Contreras</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>241.984149002796</v>
+        <v>242.6312987308234</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>David Peterson</t>
+          <t>Brandon Pfaadt</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>241.8979500561391</v>
+        <v>242.5787956434904</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Jeimer Candelario</t>
+          <t>Bryson Stott</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>241.5894530522494</v>
+        <v>242.4367692679247</v>
       </c>
     </row>
     <row r="284">
@@ -4121,241 +4121,241 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>241.5527469124748</v>
+        <v>242.1980073298768</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>155</v>
+        <v>317</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Jean Segura</t>
+          <t>Carlos Carrasco</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>241.3669706690784</v>
+        <v>242.1902933536149</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>310</v>
+        <v>92</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Matt Strahm</t>
+          <t>Ha-Seong Kim</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>241.3162768041368</v>
+        <v>242.1167258600956</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Tyler Wells</t>
+          <t>Logan Allen</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>241.2522396838234</v>
+        <v>241.8646112421222</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>325</v>
+        <v>195</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Brandon Pfaadt</t>
+          <t>Jesse Winker</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>241.0711476754183</v>
+        <v>241.4781843986371</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>317</v>
+        <v>61</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Carlos Carrasco</t>
+          <t>J.P. Crawford</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>240.9540772063897</v>
+        <v>241.4371544973262</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>61</v>
+        <v>318</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>J.P. Crawford</t>
+          <t>Drew Rasmussen</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>240.7948625969105</v>
+        <v>241.4092152630199</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Chris Taylor</t>
+          <t>Jon Berti</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>240.786689506892</v>
+        <v>241.3477433909239</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>315</v>
+        <v>140</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Logan Allen</t>
+          <t>Mitch Garver</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>240.4378485218687</v>
+        <v>241.2231307876765</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>285</v>
+        <v>109</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Lance McCullers Jr.</t>
+          <t>Danny Jansen</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>240.025980559374</v>
+        <v>241.1204251388033</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>318</v>
+        <v>150</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Drew Rasmussen</t>
+          <t>Josh Lowe</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>239.8257410359984</v>
+        <v>241.1112437446715</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>195</v>
+        <v>285</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Jesse Winker</t>
+          <t>Lance McCullers Jr.</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>239.7557540758554</v>
+        <v>241.0950932822492</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Mitch Garver</t>
+          <t>Patrick Wisdom</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>239.7184456603879</v>
+        <v>241.0475046643961</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Danny Jansen</t>
+          <t>Cal Raleigh</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>239.7173932800271</v>
+        <v>240.8350596989571</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>193</v>
+        <v>337</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Patrick Wisdom</t>
+          <t>Kenta Maeda</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>239.677905851436</v>
+        <v>240.7316498216704</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
-        <v>326</v>
+        <v>166</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Adam Wainwright</t>
+          <t>Chris Taylor</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>239.6035353301577</v>
+        <v>240.7203498741974</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Cal Raleigh</t>
+          <t>Jean Segura</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>239.3341595024428</v>
+        <v>240.7016395978527</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Tyler Anderson</t>
+          <t>Adam Wainwright</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>239.1690982023259</v>
+        <v>240.1763756919438</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
-        <v>258</v>
+        <v>322</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Graham Ashcraft</t>
+          <t>Tyler Anderson</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>239.1513974241033</v>
+        <v>240.139061346991</v>
       </c>
     </row>
     <row r="303">
@@ -4368,20 +4368,20 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>239.0389583744514</v>
+        <v>239.8475203457785</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
-        <v>337</v>
+        <v>258</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Kenta Maeda</t>
+          <t>Graham Ashcraft</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>238.8384280618556</v>
+        <v>239.7986803391805</v>
       </c>
     </row>
     <row r="305">
@@ -4394,137 +4394,137 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>238.6754738485604</v>
+        <v>239.7767598148254</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
-        <v>329</v>
+        <v>81</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Cal Quantrill</t>
+          <t>Isaac Paredes</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>238.5687755735275</v>
+        <v>239.6892971366884</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
-        <v>197</v>
+        <v>329</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Chas McCormick</t>
+          <t>Cal Quantrill</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>238.485930657886</v>
+        <v>239.5116850234904</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
-        <v>81</v>
+        <v>308</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Isaac Paredes</t>
+          <t>Michael Lorenzen</t>
         </is>
       </c>
       <c r="C308" t="n">
-        <v>238.1053946339796</v>
+        <v>239.332238050718</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Michael Lorenzen</t>
+          <t>Michael Kopech</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>238.0761410835245</v>
+        <v>239.2762184141615</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
-        <v>139</v>
+        <v>293</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Enrique Hernández</t>
+          <t>Luke Weaver</t>
         </is>
       </c>
       <c r="C310" t="n">
-        <v>237.8740814682489</v>
+        <v>239.0671227978905</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Adam Frazier</t>
+          <t>Chas McCormick</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>237.3892320514358</v>
+        <v>238.9333816129177</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Luke Weaver</t>
+          <t>Trevor Rogers</t>
         </is>
       </c>
       <c r="C312" t="n">
-        <v>237.3733635684766</v>
+        <v>238.9244184814901</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>William Contreras</t>
+          <t>Enrique Hernández</t>
         </is>
       </c>
       <c r="C313" t="n">
-        <v>237.3335953295567</v>
+        <v>238.8660669305345</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Jack Suwinski</t>
+          <t>William Contreras</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>237.1101735881129</v>
+        <v>238.7235706833888</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
-        <v>130</v>
+        <v>379</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Kevin Kiermaier</t>
+          <t>DL Hall</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>236.9809957501766</v>
+        <v>238.718751268883</v>
       </c>
     </row>
     <row r="316">
@@ -4537,163 +4537,163 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>236.969942979306</v>
+        <v>238.1752344094108</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Trevor Rogers</t>
+          <t>Seth Lugo</t>
         </is>
       </c>
       <c r="C317" t="n">
-        <v>236.9298647348423</v>
+        <v>238.1321112765878</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Travis d'Arnaud</t>
+          <t>Jack Suwinski</t>
         </is>
       </c>
       <c r="C318" t="n">
-        <v>236.8290127438242</v>
+        <v>238.111823200798</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Michael Kopech</t>
+          <t>Griffin Canning</t>
         </is>
       </c>
       <c r="C319" t="n">
-        <v>236.4131021331336</v>
+        <v>238.0936905930497</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
-        <v>313</v>
+        <v>152</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Seth Lugo</t>
+          <t>Travis d'Arnaud</t>
         </is>
       </c>
       <c r="C320" t="n">
-        <v>236.2347043406378</v>
+        <v>237.8336345752059</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
-        <v>115</v>
+        <v>289</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Paul DeJong</t>
+          <t>Rich Hill</t>
         </is>
       </c>
       <c r="C321" t="n">
-        <v>236.1067253140598</v>
+        <v>237.6278725186845</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
-        <v>158</v>
+        <v>320</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Brandon Crawford</t>
+          <t>José Quintana</t>
         </is>
       </c>
       <c r="C322" t="n">
-        <v>235.7551631703532</v>
+        <v>237.3307294662238</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
-        <v>379</v>
+        <v>115</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>DL Hall</t>
+          <t>Paul DeJong</t>
         </is>
       </c>
       <c r="C323" t="n">
-        <v>235.6655180513759</v>
+        <v>237.1683519414543</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
-        <v>289</v>
+        <v>167</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Rich Hill</t>
+          <t>Adam Frazier</t>
         </is>
       </c>
       <c r="C324" t="n">
-        <v>235.5679502036454</v>
+        <v>237.061141786577</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>José Quintana</t>
+          <t>Clarke Schmidt</t>
         </is>
       </c>
       <c r="C325" t="n">
-        <v>235.5608533067974</v>
+        <v>237.0556462592075</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
-        <v>179</v>
+        <v>331</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Joey Wendle</t>
+          <t>Braxton Garrett</t>
         </is>
       </c>
       <c r="C326" t="n">
-        <v>235.500942090892</v>
+        <v>237.0458043056548</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Griffin Canning</t>
+          <t>Josiah Gray</t>
         </is>
       </c>
       <c r="C327" t="n">
-        <v>235.3532168012924</v>
+        <v>237.0176084280664</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
-        <v>178</v>
+        <v>346</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Connor Joe</t>
+          <t>Ken Waldichuk</t>
         </is>
       </c>
       <c r="C328" t="n">
-        <v>235.2950235271899</v>
+        <v>236.9807601222114</v>
       </c>
     </row>
     <row r="329">
@@ -4706,241 +4706,241 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>235.2077982732889</v>
+        <v>236.9349366799762</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Ken Waldichuk</t>
+          <t>José Urquidy</t>
         </is>
       </c>
       <c r="C330" t="n">
-        <v>235.0175615317</v>
+        <v>236.887442558</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
-        <v>199</v>
+        <v>332</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Brian Anderson</t>
+          <t>Tanner Bibee</t>
         </is>
       </c>
       <c r="C331" t="n">
-        <v>234.9950538196456</v>
+        <v>236.6758187382041</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
-        <v>324</v>
+        <v>158</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Josiah Gray</t>
+          <t>Brandon Crawford</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>234.8567123351479</v>
+        <v>236.6239445747399</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>José Urquidy</t>
+          <t>Mike Clevinger</t>
         </is>
       </c>
       <c r="C333" t="n">
-        <v>234.7746402082025</v>
+        <v>236.5748398739723</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Santiago Espinal</t>
+          <t>Brian Anderson</t>
         </is>
       </c>
       <c r="C334" t="n">
-        <v>234.7299102704096</v>
+        <v>236.3407675380214</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
-        <v>338</v>
+        <v>130</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Clarke Schmidt</t>
+          <t>Kevin Kiermaier</t>
         </is>
       </c>
       <c r="C335" t="n">
-        <v>234.6631943168144</v>
+        <v>236.3183785867616</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
-        <v>331</v>
+        <v>178</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Braxton Garrett</t>
+          <t>Connor Joe</t>
         </is>
       </c>
       <c r="C336" t="n">
-        <v>234.6190641597989</v>
+        <v>235.7974645126612</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Tanner Bibee</t>
+          <t>Paul Blackburn</t>
         </is>
       </c>
       <c r="C337" t="n">
-        <v>234.4004268909415</v>
+        <v>235.1090667910698</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
-        <v>319</v>
+        <v>398</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Mike Clevinger</t>
+          <t>Cole Irvin</t>
         </is>
       </c>
       <c r="C338" t="n">
-        <v>234.1029077077799</v>
+        <v>234.7432381731147</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Paul Blackburn</t>
+          <t>Dustin May</t>
         </is>
       </c>
       <c r="C339" t="n">
-        <v>233.9455421317661</v>
+        <v>234.7279307454139</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
-        <v>145</v>
+        <v>369</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Keibert Ruiz</t>
+          <t>Tylor Megill</t>
         </is>
       </c>
       <c r="C340" t="n">
-        <v>233.4113997792522</v>
+        <v>234.6708614867379</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Dylan Carlson</t>
+          <t>Joey Wendle</t>
         </is>
       </c>
       <c r="C341" t="n">
-        <v>233.3293833629123</v>
+        <v>234.6691089042029</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Kolten Wong</t>
+          <t>Santiago Espinal</t>
         </is>
       </c>
       <c r="C342" t="n">
-        <v>232.9264538036815</v>
+        <v>234.5134230490707</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
-        <v>51</v>
+        <v>323</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Jonah Heim</t>
+          <t>Matthew Liberatore</t>
         </is>
       </c>
       <c r="C343" t="n">
-        <v>232.6058752652877</v>
+        <v>234.4783727680016</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
-        <v>398</v>
+        <v>145</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Cole Irvin</t>
+          <t>Keibert Ruiz</t>
         </is>
       </c>
       <c r="C344" t="n">
-        <v>232.515897945263</v>
+        <v>234.3723139148193</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
-        <v>330</v>
+        <v>387</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Dustin May</t>
+          <t>Ross Stripling</t>
         </is>
       </c>
       <c r="C345" t="n">
-        <v>232.2723097945599</v>
+        <v>234.1126636870058</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
-        <v>181</v>
+        <v>367</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Miguel Rojas</t>
+          <t>Bailey Falter</t>
         </is>
       </c>
       <c r="C346" t="n">
-        <v>232.1035917370978</v>
+        <v>233.9402258330128</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
-        <v>323</v>
+        <v>169</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Matthew Liberatore</t>
+          <t>Dylan Carlson</t>
         </is>
       </c>
       <c r="C347" t="n">
-        <v>232.006404800049</v>
+        <v>233.724355009418</v>
       </c>
     </row>
     <row r="348">
@@ -4953,7 +4953,7 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>231.6504000667718</v>
+        <v>233.5594833707543</v>
       </c>
     </row>
     <row r="349">
@@ -4966,254 +4966,254 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>231.5683162997422</v>
+        <v>233.5503480699223</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
-        <v>369</v>
+        <v>51</v>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Tylor Megill</t>
+          <t>Jonah Heim</t>
         </is>
       </c>
       <c r="C350" t="n">
-        <v>231.432077773012</v>
+        <v>233.5213399159252</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
-        <v>387</v>
+        <v>309</v>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Ross Stripling</t>
+          <t>Daniel Lynch</t>
         </is>
       </c>
       <c r="C351" t="n">
-        <v>231.4005523416861</v>
+        <v>233.5153210593377</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Daniel Lynch</t>
+          <t>Nick Martinez</t>
         </is>
       </c>
       <c r="C352" t="n">
-        <v>231.3066733633647</v>
+        <v>233.094900881492</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
-        <v>367</v>
+        <v>191</v>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Bailey Falter</t>
+          <t>Kolten Wong</t>
         </is>
       </c>
       <c r="C353" t="n">
-        <v>231.0586382726518</v>
+        <v>232.733007247744</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
-        <v>151</v>
+        <v>393</v>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Luis Urías</t>
+          <t>J.P. France</t>
         </is>
       </c>
       <c r="C354" t="n">
-        <v>231.0130007509227</v>
+        <v>232.2997831839821</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
-        <v>176</v>
+        <v>368</v>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Brendan Donovan</t>
+          <t>Drew Rucinski</t>
         </is>
       </c>
       <c r="C355" t="n">
-        <v>230.7925688434764</v>
+        <v>232.0968068391784</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Royce Lewis</t>
+          <t>Luis Urías</t>
         </is>
       </c>
       <c r="C356" t="n">
-        <v>230.6255626717969</v>
+        <v>232.0296398127165</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
-        <v>118</v>
+        <v>181</v>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Gabriel Moreno</t>
+          <t>Miguel Rojas</t>
         </is>
       </c>
       <c r="C357" t="n">
-        <v>230.1791701534949</v>
+        <v>231.9751833358397</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Nick Martinez</t>
+          <t>Noah Syndergaard</t>
         </is>
       </c>
       <c r="C358" t="n">
-        <v>230.0538570740253</v>
+        <v>231.7176609947928</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Ramón Urías</t>
+          <t>Brendan Donovan</t>
         </is>
       </c>
       <c r="C359" t="n">
-        <v>229.8049461942932</v>
+        <v>231.4875717017546</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
-        <v>187</v>
+        <v>354</v>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Tony Kemp</t>
+          <t>Ryne Nelson</t>
         </is>
       </c>
       <c r="C360" t="n">
-        <v>229.5989265053136</v>
+        <v>231.0744600715396</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
-        <v>368</v>
+        <v>312</v>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Drew Rucinski</t>
+          <t>Luis L. Ortiz</t>
         </is>
       </c>
       <c r="C361" t="n">
-        <v>229.5874915573859</v>
+        <v>231.0652134649219</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Noah Syndergaard</t>
+          <t>Jordan Lyles</t>
         </is>
       </c>
       <c r="C362" t="n">
-        <v>229.3764590794453</v>
+        <v>231.058541824674</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
-        <v>393</v>
+        <v>362</v>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>J.P. France</t>
+          <t>Andrew Abbott</t>
         </is>
       </c>
       <c r="C363" t="n">
-        <v>229.3068581653583</v>
+        <v>230.8509986511027</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
-        <v>353</v>
+        <v>149</v>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Jordan Lyles</t>
+          <t>Ramón Urías</t>
         </is>
       </c>
       <c r="C364" t="n">
-        <v>228.9796652140158</v>
+        <v>230.4433555352377</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Luis L. Ortiz</t>
+          <t>Corey Kluber</t>
         </is>
       </c>
       <c r="C365" t="n">
-        <v>228.717849218347</v>
+        <v>230.4355662971418</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Ryne Nelson</t>
+          <t>Spencer Turnbull</t>
         </is>
       </c>
       <c r="C366" t="n">
-        <v>228.532770150693</v>
+        <v>230.4083349391173</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
-        <v>362</v>
+        <v>118</v>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Andrew Abbott</t>
+          <t>Gabriel Moreno</t>
         </is>
       </c>
       <c r="C367" t="n">
-        <v>228.1769709235394</v>
+        <v>230.3627247893763</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
-        <v>177</v>
+        <v>386</v>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Jake Meyers</t>
+          <t>Colin Rea</t>
         </is>
       </c>
       <c r="C368" t="n">
-        <v>228.0030245121967</v>
+        <v>230.2515175093576</v>
       </c>
     </row>
     <row r="369">
@@ -5226,46 +5226,46 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>227.8966494177531</v>
+        <v>230.2425595676546</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
-        <v>328</v>
+        <v>357</v>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Corey Kluber</t>
+          <t>Nick Pivetta</t>
         </is>
       </c>
       <c r="C370" t="n">
-        <v>227.8767436555668</v>
+        <v>230.0616808826907</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
-        <v>341</v>
+        <v>187</v>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Spencer Turnbull</t>
+          <t>Tony Kemp</t>
         </is>
       </c>
       <c r="C371" t="n">
-        <v>227.8290438717083</v>
+        <v>230.0583040389928</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
-        <v>386</v>
+        <v>154</v>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Colin Rea</t>
+          <t>Royce Lewis</t>
         </is>
       </c>
       <c r="C372" t="n">
-        <v>227.3503137092896</v>
+        <v>230.0560383492909</v>
       </c>
     </row>
     <row r="373">
@@ -5278,46 +5278,46 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>227.1546712473976</v>
+        <v>229.7940662207099</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
-        <v>103</v>
+        <v>375</v>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Yasmani Grandal</t>
+          <t>Bobby Miller</t>
         </is>
       </c>
       <c r="C374" t="n">
-        <v>226.7002500096733</v>
+        <v>229.5024839355836</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
-        <v>375</v>
+        <v>177</v>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Bobby Miller</t>
+          <t>Jake Meyers</t>
         </is>
       </c>
       <c r="C375" t="n">
-        <v>226.5955516681031</v>
+        <v>228.4718115369793</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
-        <v>357</v>
+        <v>103</v>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Nick Pivetta</t>
+          <t>Yasmani Grandal</t>
         </is>
       </c>
       <c r="C376" t="n">
-        <v>226.2085994995346</v>
+        <v>228.2282713896684</v>
       </c>
     </row>
     <row r="377">
@@ -5330,7 +5330,7 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>224.7573393737807</v>
+        <v>228.0813119057326</v>
       </c>
     </row>
     <row r="378">
@@ -5343,7 +5343,7 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>224.1698618074623</v>
+        <v>227.2183442006104</v>
       </c>
     </row>
     <row r="379">
@@ -5356,124 +5356,124 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>224.0583732875219</v>
+        <v>226.8007810562616</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
-        <v>188</v>
+        <v>383</v>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Yan Gomes</t>
+          <t>Kyle Muller</t>
         </is>
       </c>
       <c r="C380" t="n">
-        <v>223.9603865833423</v>
+        <v>226.6765014763005</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Kyle Muller</t>
+          <t>Vince Velasquez</t>
         </is>
       </c>
       <c r="C381" t="n">
-        <v>223.7479599125591</v>
+        <v>226.5874646936088</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Josh Fleming</t>
+          <t>Drey Jameson</t>
         </is>
       </c>
       <c r="C382" t="n">
-        <v>222.9082572681149</v>
+        <v>226.3354470958366</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Drey Jameson</t>
+          <t>Kyle Harrison</t>
         </is>
       </c>
       <c r="C383" t="n">
-        <v>222.8469352519753</v>
+        <v>225.6008807998164</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Vince Velasquez</t>
+          <t>Josh Fleming</t>
         </is>
       </c>
       <c r="C384" t="n">
-        <v>222.730954515249</v>
+        <v>225.2242261369937</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Kyle Harrison</t>
+          <t>Gavin Stone</t>
         </is>
       </c>
       <c r="C385" t="n">
-        <v>222.4386901595578</v>
+        <v>225.1312512138565</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
-        <v>384</v>
+        <v>188</v>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Gavin Stone</t>
+          <t>Yan Gomes</t>
         </is>
       </c>
       <c r="C386" t="n">
-        <v>222.0081056274936</v>
+        <v>224.9644045733991</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
-        <v>168</v>
+        <v>347</v>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Christian Bethancourt</t>
+          <t>Trevor Williams</t>
         </is>
       </c>
       <c r="C387" t="n">
-        <v>221.8970193260567</v>
+        <v>224.227545995451</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
-        <v>182</v>
+        <v>374</v>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Nick Fortes</t>
+          <t>José Suarez</t>
         </is>
       </c>
       <c r="C388" t="n">
-        <v>220.9533477572444</v>
+        <v>224.0226836632714</v>
       </c>
     </row>
     <row r="389">
@@ -5486,46 +5486,46 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>220.5185961667033</v>
+        <v>223.1602713358013</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
-        <v>374</v>
+        <v>168</v>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>José Suarez</t>
+          <t>Christian Bethancourt</t>
         </is>
       </c>
       <c r="C390" t="n">
-        <v>220.3557229384632</v>
+        <v>222.6187293496346</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Christian Vázquez</t>
+          <t>Nick Fortes</t>
         </is>
       </c>
       <c r="C391" t="n">
-        <v>220.2953955830278</v>
+        <v>221.8824443801704</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
-        <v>347</v>
+        <v>175</v>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Trevor Williams</t>
+          <t>Mike Zunino</t>
         </is>
       </c>
       <c r="C392" t="n">
-        <v>220.2184888211387</v>
+        <v>221.693312570847</v>
       </c>
     </row>
     <row r="393">
@@ -5538,20 +5538,20 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>220.073618058302</v>
+        <v>221.6564166092029</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Mike Zunino</t>
+          <t>Christian Vázquez</t>
         </is>
       </c>
       <c r="C394" t="n">
-        <v>219.787813519809</v>
+        <v>221.4604655372592</v>
       </c>
     </row>
     <row r="395">
@@ -5564,7 +5564,7 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>217.7052615485374</v>
+        <v>221.1549269231486</v>
       </c>
     </row>
     <row r="396">
@@ -5577,7 +5577,7 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>217.4551771667062</v>
+        <v>220.9720559596172</v>
       </c>
     </row>
     <row r="397">
@@ -5590,7 +5590,7 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>217.0759453754637</v>
+        <v>218.2957622401323</v>
       </c>
     </row>
     <row r="398">
@@ -5603,7 +5603,7 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>216.9153203348538</v>
+        <v>218.1878157646805</v>
       </c>
     </row>
     <row r="399">
@@ -5616,7 +5616,7 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>215.384265639786</v>
+        <v>216.6284872881212</v>
       </c>
     </row>
     <row r="400">
@@ -5629,7 +5629,7 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>209.9901937626077</v>
+        <v>214.2164754731371</v>
       </c>
     </row>
   </sheetData>
